--- a/test/1. 各院彙整資料/創新國際學院.xlsx
+++ b/test/1. 各院彙整資料/創新國際學院.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\學評組工讀生\應數碩三_陳慎逸\程式學習\Index-Evaluation-Analysis-Report\test\1. 各院彙整資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C43ABE0-9EF5-4DA9-8A96-627505152301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8FA3D97-3E70-42EF-9A93-F78BC8264878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7640FF0A-9F24-4E4F-91C9-A32F3C457AC6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{31D24290-35C3-4A9A-B9EF-C7DA82F26D15}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -389,7 +389,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58FD20E7-BE24-4C00-B34F-BC2CCE5831EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D51C6F34-1484-446C-B2D3-C8EF31AE7AF8}">
   <sheetPr codeName="工作表1"/>
   <dimension ref="A1"/>
   <sheetViews>

--- a/test/1. 各院彙整資料/創新國際學院.xlsx
+++ b/test/1. 各院彙整資料/創新國際學院.xlsx
@@ -5,34 +5,34 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\學評組工讀生\應數碩三_陳慎逸\程式學習\Index-Evaluation-Analysis-Report\test\1. 各院彙整資料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\學評組工讀生\應數碩三_陳慎逸\3. Index-Evaluation-Analysis-Report\test\1. 各院彙整資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86284DD4-B42A-48A4-B3FE-95D74C66D0C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FCC43C6-007A-49C3-B3CE-4160FB26BF63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{9D791A1C-48F4-402F-A5CF-657E947227B6}"/>
+    <workbookView xWindow="3120" yWindow="600" windowWidth="17595" windowHeight="15600" firstSheet="4" activeTab="7" xr2:uid="{9D791A1C-48F4-402F-A5CF-657E947227B6}"/>
   </bookViews>
   <sheets>
     <sheet name="小結" sheetId="1" r:id="rId1"/>
-    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="2" r:id="rId2"/>
-    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="3" r:id="rId3"/>
-    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="4" r:id="rId4"/>
-    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="5" r:id="rId5"/>
-    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="6" r:id="rId6"/>
-    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="7" r:id="rId7"/>
-    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="8" r:id="rId8"/>
+    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="9" r:id="rId2"/>
+    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="10" r:id="rId3"/>
+    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="11" r:id="rId4"/>
+    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="12" r:id="rId5"/>
+    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="13" r:id="rId6"/>
+    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="14" r:id="rId7"/>
+    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="15" r:id="rId8"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1.1.1.1 學士班繁星推薦入學錄取率'!$A$1:$G$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'1.1.3.4 博士班招收國內重點大學畢業生比率'!$A$1:$G$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'1.4.1.1 學士班獲獎助學金平均金額'!$A$1:$G$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'1.7.1.4 碩士班平均修業年限'!$A$1:$G$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'2.1.1.2 平均碩博士班修課學生人數'!$A$1:$G$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$A$1:$G$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'3.2.1.1 舉辦國際學術研討會數'!$A$1:$G$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1.1.1.1 學士班繁星推薦入學錄取率'!$A$1:$G$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'1.1.3.4 博士班招收國內重點大學畢業生比率'!$A$1:$G$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'1.4.1.1 學士班獲獎助學金平均金額'!$A$1:$G$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'1.7.1.4 碩士班平均修業年限'!$A$1:$G$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'2.1.1.2 平均碩博士班修課學生人數'!$A$1:$G$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$A$1:$G$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'3.2.1.1 舉辦國際學術研討會數'!$A$1:$G$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="23">
   <si>
     <t>創國學院</t>
   </si>
@@ -118,9 +118,6 @@
   </si>
   <si>
     <t>Z23 創新國際學院（院加總 / 院均值）</t>
-  </si>
-  <si>
-    <t>Z23 創新國際學院</t>
   </si>
   <si>
     <t>ZU1 創新國際學院學士班</t>
@@ -449,19 +446,16 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$5</c:f>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>創國學院</c:v>
+                  <c:v>創國學</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>創國學</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>全創碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -469,14 +463,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$F$2:$F$5</c:f>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$F$2:$F$4</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="2">
                   <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -484,7 +478,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E021-4662-B707-709842F8BDBB}"/>
+              <c16:uniqueId val="{00000000-0761-44E9-8684-58BF98CA58E6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -519,19 +513,16 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$5</c:f>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>創國學院</c:v>
+                  <c:v>創國學</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>創國學</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>全創碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -539,14 +530,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$E$2:$E$5</c:f>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$E$2:$E$4</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.03</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="2">
                   <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
@@ -554,7 +545,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E021-4662-B707-709842F8BDBB}"/>
+              <c16:uniqueId val="{00000001-0761-44E9-8684-58BF98CA58E6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -589,19 +580,16 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$5</c:f>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>創國學院</c:v>
+                  <c:v>創國學</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>創國學</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>全創碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -609,14 +597,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$D$2:$D$5</c:f>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$D$2:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="2">
                   <c:v>0.04</c:v>
                 </c:pt>
               </c:numCache>
@@ -624,7 +612,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-E021-4662-B707-709842F8BDBB}"/>
+              <c16:uniqueId val="{00000002-0761-44E9-8684-58BF98CA58E6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -735,7 +723,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-E021-4662-B707-709842F8BDBB}"/>
+                  <c16:uniqueId val="{00000003-0761-44E9-8684-58BF98CA58E6}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -807,19 +795,16 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$5</c:f>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>創國學院</c:v>
+                  <c:v>創國學</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>創國學</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>全創碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -827,14 +812,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$C$2:$C$5</c:f>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$C$2:$C$4</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="2">
                   <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
@@ -843,7 +828,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-E021-4662-B707-709842F8BDBB}"/>
+              <c16:uniqueId val="{00000004-0761-44E9-8684-58BF98CA58E6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1124,19 +1109,16 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$5</c:f>
+              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>創國學院</c:v>
+                  <c:v>創國學</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>創國學</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>全創碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -1144,14 +1126,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$F$2:$F$5</c:f>
+              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$F$2:$F$4</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="2">
                   <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -1159,7 +1141,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9D4A-4EBA-941B-0DE3D27D4C15}"/>
+              <c16:uniqueId val="{00000000-7C71-4FC1-982E-7A8F3D94C718}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1194,19 +1176,16 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$5</c:f>
+              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>創國學院</c:v>
+                  <c:v>創國學</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>創國學</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>全創碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -1214,14 +1193,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$E$2:$E$5</c:f>
+              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$E$2:$E$4</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.03</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="2">
                   <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
@@ -1229,7 +1208,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9D4A-4EBA-941B-0DE3D27D4C15}"/>
+              <c16:uniqueId val="{00000001-7C71-4FC1-982E-7A8F3D94C718}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1264,19 +1243,16 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$5</c:f>
+              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>創國學院</c:v>
+                  <c:v>創國學</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>創國學</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>全創碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -1284,14 +1260,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$D$2:$D$5</c:f>
+              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$D$2:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="2">
                   <c:v>0.04</c:v>
                 </c:pt>
               </c:numCache>
@@ -1299,7 +1275,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-9D4A-4EBA-941B-0DE3D27D4C15}"/>
+              <c16:uniqueId val="{00000002-7C71-4FC1-982E-7A8F3D94C718}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1410,7 +1386,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-9D4A-4EBA-941B-0DE3D27D4C15}"/>
+                  <c16:uniqueId val="{00000003-7C71-4FC1-982E-7A8F3D94C718}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1482,19 +1458,16 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$5</c:f>
+              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>創國學院</c:v>
+                  <c:v>創國學</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>創國學</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>全創碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -1502,14 +1475,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$C$2:$C$5</c:f>
+              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$C$2:$C$4</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="2">
                   <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
@@ -1518,7 +1491,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-9D4A-4EBA-941B-0DE3D27D4C15}"/>
+              <c16:uniqueId val="{00000004-7C71-4FC1-982E-7A8F3D94C718}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1799,19 +1772,16 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$5</c:f>
+              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>創國學院</c:v>
+                  <c:v>創國學</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>創國學</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>全創碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -1819,14 +1789,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$F$2:$F$5</c:f>
+              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$F$2:$F$4</c:f>
               <c:numCache>
                 <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="2">
                   <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -1834,7 +1804,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F6A5-4443-8173-56DC642EA3A7}"/>
+              <c16:uniqueId val="{00000000-44A5-44DE-8CB2-DBD32E298B1E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1869,19 +1839,16 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$5</c:f>
+              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>創國學院</c:v>
+                  <c:v>創國學</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>創國學</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>全創碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -1889,14 +1856,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$E$2:$E$5</c:f>
+              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$E$2:$E$4</c:f>
               <c:numCache>
                 <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.03</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="2">
                   <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
@@ -1904,7 +1871,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F6A5-4443-8173-56DC642EA3A7}"/>
+              <c16:uniqueId val="{00000001-44A5-44DE-8CB2-DBD32E298B1E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1939,19 +1906,16 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$5</c:f>
+              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>創國學院</c:v>
+                  <c:v>創國學</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>創國學</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>全創碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -1959,14 +1923,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$D$2:$D$5</c:f>
+              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$D$2:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="2">
                   <c:v>0.04</c:v>
                 </c:pt>
               </c:numCache>
@@ -1974,7 +1938,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F6A5-4443-8173-56DC642EA3A7}"/>
+              <c16:uniqueId val="{00000002-44A5-44DE-8CB2-DBD32E298B1E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2085,7 +2049,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-F6A5-4443-8173-56DC642EA3A7}"/>
+                  <c16:uniqueId val="{00000003-44A5-44DE-8CB2-DBD32E298B1E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2157,19 +2121,16 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$5</c:f>
+              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>創國學院</c:v>
+                  <c:v>創國學</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>創國學</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>全創碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -2177,14 +2138,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$C$2:$C$5</c:f>
+              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$C$2:$C$4</c:f>
               <c:numCache>
                 <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="2">
                   <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
@@ -2193,7 +2154,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-F6A5-4443-8173-56DC642EA3A7}"/>
+              <c16:uniqueId val="{00000004-44A5-44DE-8CB2-DBD32E298B1E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2474,19 +2435,16 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$5</c:f>
+              <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>創國學院</c:v>
+                  <c:v>創國學</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>創國學</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>全創碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -2494,14 +2452,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.7.1.4 碩士班平均修業年限'!$F$2:$F$5</c:f>
+              <c:f>'1.7.1.4 碩士班平均修業年限'!$F$2:$F$4</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="2">
                   <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -2509,7 +2467,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-667E-4F85-884C-7D4BA0ED0884}"/>
+              <c16:uniqueId val="{00000000-7C61-472B-8A19-3465EC3AB7CC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2544,19 +2502,16 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$5</c:f>
+              <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>創國學院</c:v>
+                  <c:v>創國學</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>創國學</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>全創碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -2564,14 +2519,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.7.1.4 碩士班平均修業年限'!$E$2:$E$5</c:f>
+              <c:f>'1.7.1.4 碩士班平均修業年限'!$E$2:$E$4</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.03</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="2">
                   <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
@@ -2579,7 +2534,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-667E-4F85-884C-7D4BA0ED0884}"/>
+              <c16:uniqueId val="{00000001-7C61-472B-8A19-3465EC3AB7CC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2614,19 +2569,16 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$5</c:f>
+              <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>創國學院</c:v>
+                  <c:v>創國學</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>創國學</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>全創碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -2634,14 +2586,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.7.1.4 碩士班平均修業年限'!$D$2:$D$5</c:f>
+              <c:f>'1.7.1.4 碩士班平均修業年限'!$D$2:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="2">
                   <c:v>0.04</c:v>
                 </c:pt>
               </c:numCache>
@@ -2649,7 +2601,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-667E-4F85-884C-7D4BA0ED0884}"/>
+              <c16:uniqueId val="{00000002-7C61-472B-8A19-3465EC3AB7CC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2760,7 +2712,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-667E-4F85-884C-7D4BA0ED0884}"/>
+                  <c16:uniqueId val="{00000003-7C61-472B-8A19-3465EC3AB7CC}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2832,19 +2784,16 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$5</c:f>
+              <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>創國學院</c:v>
+                  <c:v>創國學</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>創國學</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>全創碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -2852,14 +2801,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.7.1.4 碩士班平均修業年限'!$C$2:$C$5</c:f>
+              <c:f>'1.7.1.4 碩士班平均修業年限'!$C$2:$C$4</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="2">
                   <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
@@ -2868,7 +2817,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-667E-4F85-884C-7D4BA0ED0884}"/>
+              <c16:uniqueId val="{00000004-7C61-472B-8A19-3465EC3AB7CC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3149,19 +3098,16 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$5</c:f>
+              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>創國學院</c:v>
+                  <c:v>創國學</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>創國學</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>全創碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -3169,14 +3115,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$F$2:$F$5</c:f>
+              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$F$2:$F$4</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="2">
                   <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -3184,7 +3130,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B3C9-44ED-8401-828ECEAD17EB}"/>
+              <c16:uniqueId val="{00000000-B210-41EC-B28A-060938561877}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3219,19 +3165,16 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$5</c:f>
+              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>創國學院</c:v>
+                  <c:v>創國學</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>創國學</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>全創碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -3239,14 +3182,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$E$2:$E$5</c:f>
+              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$E$2:$E$4</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.03</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="2">
                   <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
@@ -3254,7 +3197,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B3C9-44ED-8401-828ECEAD17EB}"/>
+              <c16:uniqueId val="{00000001-B210-41EC-B28A-060938561877}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3289,19 +3232,16 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$5</c:f>
+              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>創國學院</c:v>
+                  <c:v>創國學</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>創國學</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>全創碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -3309,14 +3249,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$D$2:$D$5</c:f>
+              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$D$2:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="2">
                   <c:v>0.04</c:v>
                 </c:pt>
               </c:numCache>
@@ -3324,7 +3264,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-B3C9-44ED-8401-828ECEAD17EB}"/>
+              <c16:uniqueId val="{00000002-B210-41EC-B28A-060938561877}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3435,7 +3375,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-B3C9-44ED-8401-828ECEAD17EB}"/>
+                  <c16:uniqueId val="{00000003-B210-41EC-B28A-060938561877}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3507,19 +3447,16 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$5</c:f>
+              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>創國學院</c:v>
+                  <c:v>創國學</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>創國學</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>全創碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -3527,14 +3464,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$C$2:$C$5</c:f>
+              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$C$2:$C$4</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="2">
                   <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
@@ -3543,7 +3480,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-B3C9-44ED-8401-828ECEAD17EB}"/>
+              <c16:uniqueId val="{00000004-B210-41EC-B28A-060938561877}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3824,19 +3761,16 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$5</c:f>
+              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>創國學院</c:v>
+                  <c:v>創國學</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>創國學</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>全創碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -3844,14 +3778,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$F$2:$F$5</c:f>
+              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$F$2:$F$4</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="2">
                   <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -3859,7 +3793,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-009C-45C0-8744-BACA8CB43A08}"/>
+              <c16:uniqueId val="{00000000-EC64-4A63-9A62-E18FB40E6A38}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3894,19 +3828,16 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$5</c:f>
+              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>創國學院</c:v>
+                  <c:v>創國學</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>創國學</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>全創碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -3914,14 +3845,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$E$2:$E$5</c:f>
+              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$E$2:$E$4</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.03</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="2">
                   <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
@@ -3929,7 +3860,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-009C-45C0-8744-BACA8CB43A08}"/>
+              <c16:uniqueId val="{00000001-EC64-4A63-9A62-E18FB40E6A38}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3964,19 +3895,16 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$5</c:f>
+              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>創國學院</c:v>
+                  <c:v>創國學</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>創國學</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>全創碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -3984,14 +3912,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$D$2:$D$5</c:f>
+              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$D$2:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="2">
                   <c:v>0.04</c:v>
                 </c:pt>
               </c:numCache>
@@ -3999,7 +3927,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-009C-45C0-8744-BACA8CB43A08}"/>
+              <c16:uniqueId val="{00000002-EC64-4A63-9A62-E18FB40E6A38}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4110,7 +4038,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-009C-45C0-8744-BACA8CB43A08}"/>
+                  <c16:uniqueId val="{00000003-EC64-4A63-9A62-E18FB40E6A38}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4182,19 +4110,16 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$5</c:f>
+              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>創國學院</c:v>
+                  <c:v>創國學</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>創國學</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>全創碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -4202,14 +4127,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$C$2:$C$5</c:f>
+              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$C$2:$C$4</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="2">
                   <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
@@ -4218,7 +4143,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-009C-45C0-8744-BACA8CB43A08}"/>
+              <c16:uniqueId val="{00000004-EC64-4A63-9A62-E18FB40E6A38}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4499,19 +4424,16 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$5</c:f>
+              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>創國學院</c:v>
+                  <c:v>創國學</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>創國學</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>全創碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -4519,14 +4441,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$F$2:$F$5</c:f>
+              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$F$2:$F$4</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="2">
                   <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -4534,7 +4456,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DBA9-4725-A395-90C5FF329382}"/>
+              <c16:uniqueId val="{00000000-EADC-4965-9D7F-8157C663761F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4569,19 +4491,16 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$5</c:f>
+              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>創國學院</c:v>
+                  <c:v>創國學</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>創國學</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>全創碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -4589,14 +4508,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$E$2:$E$5</c:f>
+              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$E$2:$E$4</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.03</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="2">
                   <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
@@ -4604,7 +4523,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-DBA9-4725-A395-90C5FF329382}"/>
+              <c16:uniqueId val="{00000001-EADC-4965-9D7F-8157C663761F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4639,19 +4558,16 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$5</c:f>
+              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>創國學院</c:v>
+                  <c:v>創國學</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>創國學</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>全創碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -4659,14 +4575,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$D$2:$D$5</c:f>
+              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$D$2:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="2">
                   <c:v>0.04</c:v>
                 </c:pt>
               </c:numCache>
@@ -4674,7 +4590,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-DBA9-4725-A395-90C5FF329382}"/>
+              <c16:uniqueId val="{00000002-EADC-4965-9D7F-8157C663761F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4785,7 +4701,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-DBA9-4725-A395-90C5FF329382}"/>
+                  <c16:uniqueId val="{00000003-EADC-4965-9D7F-8157C663761F}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4857,19 +4773,16 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$5</c:f>
+              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>創國學院</c:v>
+                  <c:v>創國學</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>創國學</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>全創碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -4877,14 +4790,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$C$2:$C$5</c:f>
+              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$C$2:$C$4</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="2">
                   <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
@@ -4893,7 +4806,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-DBA9-4725-A395-90C5FF329382}"/>
+              <c16:uniqueId val="{00000004-EADC-4965-9D7F-8157C663761F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5122,7 +5035,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C076BD5B-525A-43DA-9A31-1622EE2C90B6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C508CF3-AB75-46A9-AE25-24658C1B78BB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5155,7 +5068,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60291DE8-CC97-4CE4-B30C-1E1A8F2E0290}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{419F4F4F-F56C-4D3C-A0E1-1EFF44EB96C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5188,7 +5101,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D91BE25-0A54-460C-85D6-87FFA85196CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DBC33D5-04F5-4FA8-867A-090EEE1CFFC5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5221,7 +5134,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CA45CDF-54D6-448D-86E4-75EA4E25A974}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB8A39A8-53DA-4F33-8C6B-210F64FB77C8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5254,7 +5167,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15668CBF-FE97-4720-ABFE-B55CCDF9382E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9ADCCA30-0B2C-4FC2-B427-0803565DF776}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5287,7 +5200,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{496AC409-8BC6-40F6-817B-B4DD88D5CB40}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AFD7B57-9A98-4E78-ACCA-5805A404AE8C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5320,7 +5233,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B2FCD4F-044F-426D-AEB7-6F92013FA057}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88DE47B0-9E72-4B78-BA7D-1AFC937C163A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5370,7 +5283,7 @@
         </row>
         <row r="2">
           <cell r="B2" t="str">
-            <v>院均值</v>
+            <v>科系1</v>
           </cell>
           <cell r="C2">
             <v>0.06</v>
@@ -5387,7 +5300,7 @@
         </row>
         <row r="3">
           <cell r="B3" t="str">
-            <v>測試二</v>
+            <v>院均值</v>
           </cell>
           <cell r="C3">
             <v>0.05</v>
@@ -5767,25 +5680,25 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="1.1.1.1 學士班繁星推薦入學錄取率" xr:uid="{9048C2AB-493E-4B4C-9D51-36AE0CEB67F4}"/>
-    <hyperlink ref="A3" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="1.1.3.4 博士班招收國內重點大學畢業生比率" xr:uid="{D68C70C2-BB81-4CDD-ABB4-CA9189D2C9D7}"/>
-    <hyperlink ref="A4" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="1.4.1.1 學士班獲獎助學金平均金額" xr:uid="{1D0278A6-1D67-4DDA-8051-9EDCB95B8662}"/>
-    <hyperlink ref="A5" location="'1.7.1.4 碩士班平均修業年限'!A1" display="1.7.1.4 碩士班平均修業年限" xr:uid="{B2EDAFF3-DEEB-4969-9D6A-08AEBD4377D8}"/>
-    <hyperlink ref="A6" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="2.1.1.2 平均碩博士班修課學生人數" xr:uid="{2A009F81-4FD0-4D31-8A7C-847F071E38A4}"/>
-    <hyperlink ref="A7" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" xr:uid="{3F3ADE36-9F4D-4658-9F07-4430CEF3FB33}"/>
-    <hyperlink ref="A8" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="3.2.1.1 舉辦國際學術研討會數" xr:uid="{E5DAAA5A-B21C-468A-876C-C9E4B048535C}"/>
+    <hyperlink ref="A2" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="1.1.1.1 學士班繁星推薦入學錄取率" xr:uid="{0CE1DD5F-16AA-490C-A1C2-665FF3682552}"/>
+    <hyperlink ref="A3" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="1.1.3.4 博士班招收國內重點大學畢業生比率" xr:uid="{74BA59F8-D37D-4D1B-A437-61EFC313F355}"/>
+    <hyperlink ref="A4" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="1.4.1.1 學士班獲獎助學金平均金額" xr:uid="{5E8C44A4-F105-4A69-AC25-6D237FC26FE1}"/>
+    <hyperlink ref="A5" location="'1.7.1.4 碩士班平均修業年限'!A1" display="1.7.1.4 碩士班平均修業年限" xr:uid="{52EEE6B3-9AD5-4CF3-84E3-4488A28DE004}"/>
+    <hyperlink ref="A6" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="2.1.1.2 平均碩博士班修課學生人數" xr:uid="{7F1AEE9F-2AD4-4BDE-9E56-2B5294E92DEA}"/>
+    <hyperlink ref="A7" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" xr:uid="{B8F90095-ADDA-4770-B4CF-515A24D5C7CA}"/>
+    <hyperlink ref="A8" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="3.2.1.1 舉辦國際學術研討會數" xr:uid="{6C274637-99C7-4593-8778-B55AADC662A8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9208F55-CBA7-499C-B2DB-46E82B3A11A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0B42FD4-DEC3-439C-9F77-2EFF9912B912}">
   <sheetPr codeName="工作表2"/>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5840,16 +5753,14 @@
       <c r="F2" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G2" s="9">
-        <v>999</v>
-      </c>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
@@ -5862,39 +5773,28 @@
         <v>20</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="10">
+      <c r="C4" s="10">
         <v>0.05</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D4" s="10">
         <v>0.04</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E4" s="10">
         <v>0.01</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F4" s="10">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G5" s="9"/>
+      <c r="G4" s="9">
+        <v>999</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G5" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G5">
-      <sortCondition descending="1" ref="G1:G5"/>
+  <autoFilter ref="A1:G4" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G4">
+      <sortCondition descending="1" ref="G1:G4"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5905,12 +5805,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26EBD6EE-096C-474E-A07E-4E5CE8F6D036}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99AFACD9-11EC-4559-BE78-DC3DDB72915A}">
   <sheetPr codeName="工作表3"/>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5965,16 +5865,14 @@
       <c r="F2" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G2" s="9">
-        <v>999</v>
-      </c>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
@@ -5987,39 +5885,28 @@
         <v>20</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="10">
+      <c r="C4" s="10">
         <v>0.05</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D4" s="10">
         <v>0.04</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E4" s="10">
         <v>0.01</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F4" s="10">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G5" s="9"/>
+      <c r="G4" s="9">
+        <v>999</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G5" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G5">
-      <sortCondition descending="1" ref="G1:G5"/>
+  <autoFilter ref="A1:G4" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G4">
+      <sortCondition descending="1" ref="G1:G4"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6030,12 +5917,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A1E7025-0C71-47F0-BD90-BAE1D89A02EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF76E936-EC59-4864-ADD1-24781379D861}">
   <sheetPr codeName="工作表4"/>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6090,16 +5977,14 @@
       <c r="F2" s="11">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G2" s="9">
-        <v>999</v>
-      </c>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -6112,39 +5997,28 @@
         <v>20</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="11">
+      <c r="C4" s="11">
         <v>0.05</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D4" s="11">
         <v>0.04</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E4" s="11">
         <v>0.01</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F4" s="11">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G5" s="9"/>
+      <c r="G4" s="9">
+        <v>999</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G5" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G5">
-      <sortCondition descending="1" ref="G1:G5"/>
+  <autoFilter ref="A1:G4" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G4">
+      <sortCondition descending="1" ref="G1:G4"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6155,12 +6029,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21F49256-D9E5-4546-8646-FBB3C7DB5C33}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8D0318F-E325-47EE-9C08-656A39D4247C}">
   <sheetPr codeName="工作表5"/>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6215,16 +6089,14 @@
       <c r="F2" s="12">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G2" s="9">
-        <v>999</v>
-      </c>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -6237,39 +6109,28 @@
         <v>20</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="12">
+      <c r="C4" s="12">
         <v>0.05</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D4" s="12">
         <v>0.04</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E4" s="12">
         <v>0.01</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F4" s="12">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G5" s="9"/>
+      <c r="G4" s="9">
+        <v>999</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G5" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G5">
-      <sortCondition descending="1" ref="G1:G5"/>
+  <autoFilter ref="A1:G4" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G4">
+      <sortCondition descending="1" ref="G1:G4"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6280,12 +6141,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DBF1F7C-D124-4250-9E11-101B533A8DF0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD4F77EE-D609-49EB-BF59-5FC32549514F}">
   <sheetPr codeName="工作表6"/>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6340,16 +6201,14 @@
       <c r="F2" s="12">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G2" s="9">
-        <v>999</v>
-      </c>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -6362,39 +6221,28 @@
         <v>20</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="12">
+      <c r="C4" s="12">
         <v>0.05</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D4" s="12">
         <v>0.04</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E4" s="12">
         <v>0.01</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F4" s="12">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G5" s="9"/>
+      <c r="G4" s="9">
+        <v>999</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G5" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G5">
-      <sortCondition descending="1" ref="G1:G5"/>
+  <autoFilter ref="A1:G4" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G4">
+      <sortCondition descending="1" ref="G1:G4"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6405,12 +6253,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C5E31C9-8600-4D69-944D-0D2DCB917935}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0CB769-CA21-439C-BD57-87EA2F48C63E}">
   <sheetPr codeName="工作表7"/>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6451,7 +6299,7 @@
         <v>18</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="12">
         <v>0.06</v>
@@ -6465,16 +6313,14 @@
       <c r="F2" s="12">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G2" s="9">
-        <v>999</v>
-      </c>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -6487,39 +6333,28 @@
         <v>20</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="12">
+      <c r="C4" s="12">
         <v>0.05</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D4" s="12">
         <v>0.04</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E4" s="12">
         <v>0.01</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F4" s="12">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G5" s="9"/>
+      <c r="G4" s="9">
+        <v>999</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G5" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G5">
-      <sortCondition descending="1" ref="G1:G5"/>
+  <autoFilter ref="A1:G4" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G4">
+      <sortCondition descending="1" ref="G1:G4"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6530,12 +6365,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B418A20-26BB-4154-8436-7F2DF456BC61}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2ED070C-EA8C-49ED-AE0A-3C2899B00982}">
   <sheetPr codeName="工作表8"/>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6576,7 +6411,7 @@
         <v>18</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="12">
         <v>0.06</v>
@@ -6590,16 +6425,14 @@
       <c r="F2" s="12">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G2" s="9">
-        <v>999</v>
-      </c>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -6612,39 +6445,28 @@
         <v>20</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="12">
+      <c r="C4" s="12">
         <v>0.05</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D4" s="12">
         <v>0.04</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E4" s="12">
         <v>0.01</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F4" s="12">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G5" s="9"/>
+      <c r="G4" s="9">
+        <v>999</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G5" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G5">
-      <sortCondition descending="1" ref="G1:G5"/>
+  <autoFilter ref="A1:G4" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G4">
+      <sortCondition descending="1" ref="G1:G4"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/test/1. 各院彙整資料/創新國際學院.xlsx
+++ b/test/1. 各院彙整資料/創新國際學院.xlsx
@@ -8,23 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\學評組工讀生\應數碩三_陳慎逸\3. Index-Evaluation-Analysis-Report\test\1. 各院彙整資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FCC43C6-007A-49C3-B3CE-4160FB26BF63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{700A86DF-0B59-4C84-A422-8272ADB346CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="600" windowWidth="17595" windowHeight="15600" firstSheet="4" activeTab="7" xr2:uid="{9D791A1C-48F4-402F-A5CF-657E947227B6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="7" xr2:uid="{9D791A1C-48F4-402F-A5CF-657E947227B6}"/>
   </bookViews>
   <sheets>
     <sheet name="小結" sheetId="1" r:id="rId1"/>
-    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="9" r:id="rId2"/>
-    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="10" r:id="rId3"/>
-    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="11" r:id="rId4"/>
-    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="12" r:id="rId5"/>
-    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="13" r:id="rId6"/>
-    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="14" r:id="rId7"/>
-    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="15" r:id="rId8"/>
+    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="72" r:id="rId2"/>
+    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="73" r:id="rId3"/>
+    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="74" r:id="rId4"/>
+    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="75" r:id="rId5"/>
+    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="76" r:id="rId6"/>
+    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="77" r:id="rId7"/>
+    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="78" r:id="rId8"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId9"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1.1.1.1 學士班繁星推薦入學錄取率'!$A$1:$G$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'1.1.3.4 博士班招收國內重點大學畢業生比率'!$A$1:$G$4</definedName>
@@ -53,36 +50,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="23">
-  <si>
-    <t>創國學院</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="32">
   <si>
     <t>創國學</t>
   </si>
   <si>
     <t>全創碩</t>
-  </si>
-  <si>
-    <t>1.1.1.1 學士班繁星推薦入學錄取率</t>
-  </si>
-  <si>
-    <t>1.1.3.4 博士班招收國內重點大學畢業生比率</t>
-  </si>
-  <si>
-    <t>1.4.1.1 學士班獲獎助學金平均金額</t>
-  </si>
-  <si>
-    <t>1.7.1.4 碩士班平均修業年限</t>
-  </si>
-  <si>
-    <t>2.1.1.2 平均碩博士班修課學生人數</t>
-  </si>
-  <si>
-    <t>2.3.1.2 各系所教師兼任本校二級學術行政主管人次</t>
-  </si>
-  <si>
-    <t>3.2.1.1 舉辦國際學術研討會數</t>
   </si>
   <si>
     <t>科系</t>
@@ -132,6 +105,57 @@
   <si>
     <t>院加總</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>創國學院</t>
+  </si>
+  <si>
+    <t>1.1.1.1</t>
+  </si>
+  <si>
+    <t>學士班繁星推薦入學錄取率</t>
+  </si>
+  <si>
+    <t>1.1.3.4</t>
+  </si>
+  <si>
+    <t>博士班招收國內重點大學畢業生比率</t>
+  </si>
+  <si>
+    <t>1.4.1.1</t>
+  </si>
+  <si>
+    <t>學士班獲獎助學金平均金額</t>
+  </si>
+  <si>
+    <t>1.7.1.4</t>
+  </si>
+  <si>
+    <t>碩士班平均修業年限</t>
+  </si>
+  <si>
+    <t>2.1.1.2</t>
+  </si>
+  <si>
+    <t>平均碩博士班修課學生人數</t>
+  </si>
+  <si>
+    <t>2.3.1.2</t>
+  </si>
+  <si>
+    <t>各系所教師兼任本校二級學術行政主管人次</t>
+  </si>
+  <si>
+    <t>3.2.1.1</t>
+  </si>
+  <si>
+    <t>舉辦國際學術研討會數</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>無資料。</t>
   </si>
 </sst>
 </file>
@@ -448,15 +472,9 @@
             <c:strRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>創國學</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>全創碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -466,19 +484,16 @@
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$F$2:$F$4</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.5000000000000003E-2</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0761-44E9-8684-58BF98CA58E6}"/>
+              <c16:uniqueId val="{00000000-289C-4D94-A2C6-0283185FF086}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -515,15 +530,9 @@
             <c:strRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>創國學</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>全創碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -533,19 +542,16 @@
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$E$2:$E$4</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.01</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0761-44E9-8684-58BF98CA58E6}"/>
+              <c16:uniqueId val="{00000001-289C-4D94-A2C6-0283185FF086}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -582,15 +588,9 @@
             <c:strRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>創國學</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>全創碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -600,19 +600,16 @@
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$D$2:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.04</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0761-44E9-8684-58BF98CA58E6}"/>
+              <c16:uniqueId val="{00000002-289C-4D94-A2C6-0283185FF086}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -676,7 +673,11 @@
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
-                <a:effectLst/>
+                <a:effectLst>
+                  <a:glow rad="63500">
+                    <a:schemeClr val="bg1"/>
+                  </a:glow>
+                </a:effectLst>
               </c:spPr>
               <c:txPr>
                 <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -723,7 +724,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-0761-44E9-8684-58BF98CA58E6}"/>
+                  <c16:uniqueId val="{00000003-289C-4D94-A2C6-0283185FF086}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -732,7 +733,11 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -797,15 +802,9 @@
             <c:strRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>創國學</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>全創碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -815,12 +814,9 @@
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$C$2:$C$4</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.05</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -828,7 +824,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-0761-44E9-8684-58BF98CA58E6}"/>
+              <c16:uniqueId val="{00000004-289C-4D94-A2C6-0283185FF086}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1111,15 +1107,9 @@
             <c:strRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>創國學</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>全創碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1129,19 +1119,16 @@
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$F$2:$F$4</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.5000000000000003E-2</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7C71-4FC1-982E-7A8F3D94C718}"/>
+              <c16:uniqueId val="{00000000-7EB3-4BC9-8B94-DFEE2B7CE11E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1178,15 +1165,9 @@
             <c:strRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>創國學</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>全創碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1196,19 +1177,16 @@
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$E$2:$E$4</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.01</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7C71-4FC1-982E-7A8F3D94C718}"/>
+              <c16:uniqueId val="{00000001-7EB3-4BC9-8B94-DFEE2B7CE11E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1245,15 +1223,9 @@
             <c:strRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>創國學</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>全創碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1263,19 +1235,16 @@
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$D$2:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.04</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-7C71-4FC1-982E-7A8F3D94C718}"/>
+              <c16:uniqueId val="{00000002-7EB3-4BC9-8B94-DFEE2B7CE11E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1339,7 +1308,11 @@
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
-                <a:effectLst/>
+                <a:effectLst>
+                  <a:glow rad="63500">
+                    <a:schemeClr val="bg1"/>
+                  </a:glow>
+                </a:effectLst>
               </c:spPr>
               <c:txPr>
                 <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -1386,7 +1359,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-7C71-4FC1-982E-7A8F3D94C718}"/>
+                  <c16:uniqueId val="{00000003-7EB3-4BC9-8B94-DFEE2B7CE11E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1395,7 +1368,11 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -1460,15 +1437,9 @@
             <c:strRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>創國學</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>全創碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1478,12 +1449,9 @@
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$C$2:$C$4</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.05</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1491,7 +1459,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-7C71-4FC1-982E-7A8F3D94C718}"/>
+              <c16:uniqueId val="{00000004-7EB3-4BC9-8B94-DFEE2B7CE11E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1774,15 +1742,9 @@
             <c:strRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>創國學</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>全創碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1792,19 +1754,16 @@
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$F$2:$F$4</c:f>
               <c:numCache>
                 <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.5000000000000003E-2</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-44A5-44DE-8CB2-DBD32E298B1E}"/>
+              <c16:uniqueId val="{00000000-3E20-47E5-BD04-6A7C4A0066BD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1841,15 +1800,9 @@
             <c:strRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>創國學</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>全創碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1859,19 +1812,16 @@
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$E$2:$E$4</c:f>
               <c:numCache>
                 <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.01</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-44A5-44DE-8CB2-DBD32E298B1E}"/>
+              <c16:uniqueId val="{00000001-3E20-47E5-BD04-6A7C4A0066BD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1908,15 +1858,9 @@
             <c:strRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>創國學</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>全創碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1926,19 +1870,16 @@
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$D$2:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.04</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-44A5-44DE-8CB2-DBD32E298B1E}"/>
+              <c16:uniqueId val="{00000002-3E20-47E5-BD04-6A7C4A0066BD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2002,7 +1943,11 @@
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
-                <a:effectLst/>
+                <a:effectLst>
+                  <a:glow rad="63500">
+                    <a:schemeClr val="bg1"/>
+                  </a:glow>
+                </a:effectLst>
               </c:spPr>
               <c:txPr>
                 <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -2049,7 +1994,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-44A5-44DE-8CB2-DBD32E298B1E}"/>
+                  <c16:uniqueId val="{00000003-3E20-47E5-BD04-6A7C4A0066BD}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2058,7 +2003,11 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -2123,15 +2072,9 @@
             <c:strRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>創國學</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>全創碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2141,12 +2084,9 @@
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$C$2:$C$4</c:f>
               <c:numCache>
                 <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.05</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2154,7 +2094,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-44A5-44DE-8CB2-DBD32E298B1E}"/>
+              <c16:uniqueId val="{00000004-3E20-47E5-BD04-6A7C4A0066BD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2437,15 +2377,9 @@
             <c:strRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>創國學</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>全創碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2455,19 +2389,16 @@
               <c:f>'1.7.1.4 碩士班平均修業年限'!$F$2:$F$4</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.5000000000000003E-2</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7C61-472B-8A19-3465EC3AB7CC}"/>
+              <c16:uniqueId val="{00000000-F1C1-4C5C-8825-EDC7A42B57C6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2504,15 +2435,9 @@
             <c:strRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>創國學</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>全創碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2522,19 +2447,16 @@
               <c:f>'1.7.1.4 碩士班平均修業年限'!$E$2:$E$4</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.01</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7C61-472B-8A19-3465EC3AB7CC}"/>
+              <c16:uniqueId val="{00000001-F1C1-4C5C-8825-EDC7A42B57C6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2571,15 +2493,9 @@
             <c:strRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>創國學</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>全創碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2589,19 +2505,16 @@
               <c:f>'1.7.1.4 碩士班平均修業年限'!$D$2:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.04</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-7C61-472B-8A19-3465EC3AB7CC}"/>
+              <c16:uniqueId val="{00000002-F1C1-4C5C-8825-EDC7A42B57C6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2665,7 +2578,11 @@
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
-                <a:effectLst/>
+                <a:effectLst>
+                  <a:glow rad="63500">
+                    <a:schemeClr val="bg1"/>
+                  </a:glow>
+                </a:effectLst>
               </c:spPr>
               <c:txPr>
                 <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -2712,7 +2629,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-7C61-472B-8A19-3465EC3AB7CC}"/>
+                  <c16:uniqueId val="{00000003-F1C1-4C5C-8825-EDC7A42B57C6}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2721,7 +2638,11 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -2786,15 +2707,9 @@
             <c:strRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>創國學</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>全創碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2804,12 +2719,9 @@
               <c:f>'1.7.1.4 碩士班平均修業年限'!$C$2:$C$4</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.05</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2817,7 +2729,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-7C61-472B-8A19-3465EC3AB7CC}"/>
+              <c16:uniqueId val="{00000004-F1C1-4C5C-8825-EDC7A42B57C6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3100,15 +3012,9 @@
             <c:strRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>創國學</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>全創碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3118,19 +3024,16 @@
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$F$2:$F$4</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.5000000000000003E-2</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B210-41EC-B28A-060938561877}"/>
+              <c16:uniqueId val="{00000000-2E51-4953-B3FF-1B560BF86306}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3167,15 +3070,9 @@
             <c:strRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>創國學</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>全創碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3185,19 +3082,16 @@
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$E$2:$E$4</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.01</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B210-41EC-B28A-060938561877}"/>
+              <c16:uniqueId val="{00000001-2E51-4953-B3FF-1B560BF86306}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3234,15 +3128,9 @@
             <c:strRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>創國學</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>全創碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3252,19 +3140,16 @@
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$D$2:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.04</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-B210-41EC-B28A-060938561877}"/>
+              <c16:uniqueId val="{00000002-2E51-4953-B3FF-1B560BF86306}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3328,7 +3213,11 @@
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
-                <a:effectLst/>
+                <a:effectLst>
+                  <a:glow rad="63500">
+                    <a:schemeClr val="bg1"/>
+                  </a:glow>
+                </a:effectLst>
               </c:spPr>
               <c:txPr>
                 <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -3375,7 +3264,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-B210-41EC-B28A-060938561877}"/>
+                  <c16:uniqueId val="{00000003-2E51-4953-B3FF-1B560BF86306}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3384,7 +3273,11 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -3449,15 +3342,9 @@
             <c:strRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>創國學</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>全創碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3467,12 +3354,9 @@
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$C$2:$C$4</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.05</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3480,7 +3364,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-B210-41EC-B28A-060938561877}"/>
+              <c16:uniqueId val="{00000004-2E51-4953-B3FF-1B560BF86306}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3763,15 +3647,9 @@
             <c:strRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>創國學</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>全創碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3781,19 +3659,16 @@
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$F$2:$F$4</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.5000000000000003E-2</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EC64-4A63-9A62-E18FB40E6A38}"/>
+              <c16:uniqueId val="{00000000-FE80-44D0-A860-C369A4773AAC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3830,15 +3705,9 @@
             <c:strRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>創國學</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>全創碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3848,19 +3717,16 @@
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$E$2:$E$4</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.01</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-EC64-4A63-9A62-E18FB40E6A38}"/>
+              <c16:uniqueId val="{00000001-FE80-44D0-A860-C369A4773AAC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3897,15 +3763,9 @@
             <c:strRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>創國學</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>全創碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3915,19 +3775,16 @@
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$D$2:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.04</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-EC64-4A63-9A62-E18FB40E6A38}"/>
+              <c16:uniqueId val="{00000002-FE80-44D0-A860-C369A4773AAC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3991,7 +3848,11 @@
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
-                <a:effectLst/>
+                <a:effectLst>
+                  <a:glow rad="63500">
+                    <a:schemeClr val="bg1"/>
+                  </a:glow>
+                </a:effectLst>
               </c:spPr>
               <c:txPr>
                 <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -4038,7 +3899,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-EC64-4A63-9A62-E18FB40E6A38}"/>
+                  <c16:uniqueId val="{00000003-FE80-44D0-A860-C369A4773AAC}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4047,7 +3908,11 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -4112,15 +3977,9 @@
             <c:strRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>創國學</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>全創碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4130,12 +3989,9 @@
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$C$2:$C$4</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.05</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4143,7 +3999,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-EC64-4A63-9A62-E18FB40E6A38}"/>
+              <c16:uniqueId val="{00000004-FE80-44D0-A860-C369A4773AAC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4426,15 +4282,9 @@
             <c:strRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>創國學</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>全創碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4444,19 +4294,16 @@
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$F$2:$F$4</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.5000000000000003E-2</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EADC-4965-9D7F-8157C663761F}"/>
+              <c16:uniqueId val="{00000000-3793-48DD-B774-8AA72AE432AE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4493,15 +4340,9 @@
             <c:strRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>創國學</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>全創碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4511,19 +4352,16 @@
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$E$2:$E$4</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.01</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-EADC-4965-9D7F-8157C663761F}"/>
+              <c16:uniqueId val="{00000001-3793-48DD-B774-8AA72AE432AE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4560,15 +4398,9 @@
             <c:strRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>創國學</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>全創碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4578,19 +4410,16 @@
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$D$2:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.04</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-EADC-4965-9D7F-8157C663761F}"/>
+              <c16:uniqueId val="{00000002-3793-48DD-B774-8AA72AE432AE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4654,7 +4483,11 @@
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
-                <a:effectLst/>
+                <a:effectLst>
+                  <a:glow rad="63500">
+                    <a:schemeClr val="bg1"/>
+                  </a:glow>
+                </a:effectLst>
               </c:spPr>
               <c:txPr>
                 <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -4701,7 +4534,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-EADC-4965-9D7F-8157C663761F}"/>
+                  <c16:uniqueId val="{00000003-3793-48DD-B774-8AA72AE432AE}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4710,7 +4543,11 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -4775,15 +4612,9 @@
             <c:strRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>創國學</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>全創碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4793,12 +4624,9 @@
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$C$2:$C$4</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.05</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4806,7 +4634,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-EADC-4965-9D7F-8157C663761F}"/>
+              <c16:uniqueId val="{00000004-3793-48DD-B774-8AA72AE432AE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5035,7 +4863,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C508CF3-AB75-46A9-AE25-24658C1B78BB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5ED56B4-3E20-49B1-9D48-0B9D273D0F11}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5068,7 +4896,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{419F4F4F-F56C-4D3C-A0E1-1EFF44EB96C3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5312CEF4-87C8-48B3-A17E-A14C3D6A9B78}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5101,7 +4929,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DBC33D5-04F5-4FA8-867A-090EEE1CFFC5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1244E926-C900-46D8-9C9F-11838C6A4EDF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5134,7 +4962,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB8A39A8-53DA-4F33-8C6B-210F64FB77C8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2BEA404-0B68-406E-9AC4-2462CC453E78}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5167,7 +4995,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9ADCCA30-0B2C-4FC2-B427-0803565DF776}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94D1D6AA-E63B-414F-947A-B5A06BD80617}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5200,7 +5028,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AFD7B57-9A98-4E78-ACCA-5805A404AE8C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73FE43F8-C5E6-42C9-8138-B32567779DAC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5233,7 +5061,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88DE47B0-9E72-4B78-BA7D-1AFC937C163A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F01D1E7E-B898-4948-9095-CA145D3CA6AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5254,72 +5082,6 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="主控台"/>
-      <sheetName val="template"/>
-      <sheetName val="test1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="1">
-          <cell r="C1" t="str">
-            <v>三年均值</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>110年</v>
-          </cell>
-          <cell r="E1" t="str">
-            <v>109年</v>
-          </cell>
-          <cell r="F1" t="str">
-            <v>108年</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="B2" t="str">
-            <v>科系1</v>
-          </cell>
-          <cell r="C2">
-            <v>0.06</v>
-          </cell>
-          <cell r="D2">
-            <v>0.06</v>
-          </cell>
-          <cell r="E2">
-            <v>0.03</v>
-          </cell>
-          <cell r="F2">
-            <v>1.4999999999999999E-2</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3" t="str">
-            <v>院均值</v>
-          </cell>
-          <cell r="C3">
-            <v>0.05</v>
-          </cell>
-          <cell r="D3">
-            <v>0.04</v>
-          </cell>
-          <cell r="E3">
-            <v>0.01</v>
-          </cell>
-          <cell r="F3">
-            <v>3.5000000000000003E-2</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5617,88 +5379,141 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="0" row="0">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{FD2AA3A3-9010-41C9-8A41-4FB9D52DB891}">
+  <we:reference id="wa104380862" version="1.5.0.0" store="zh-TW" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="wa104380862" version="1.5.0.0" store="" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AD6DA52-5D76-49F2-B38F-7870EAF3C7DA}">
   <sheetPr codeName="工作表1"/>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>8</v>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>9</v>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="1.1.1.1 學士班繁星推薦入學錄取率" xr:uid="{0CE1DD5F-16AA-490C-A1C2-665FF3682552}"/>
-    <hyperlink ref="A3" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="1.1.3.4 博士班招收國內重點大學畢業生比率" xr:uid="{74BA59F8-D37D-4D1B-A437-61EFC313F355}"/>
-    <hyperlink ref="A4" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="1.4.1.1 學士班獲獎助學金平均金額" xr:uid="{5E8C44A4-F105-4A69-AC25-6D237FC26FE1}"/>
-    <hyperlink ref="A5" location="'1.7.1.4 碩士班平均修業年限'!A1" display="1.7.1.4 碩士班平均修業年限" xr:uid="{52EEE6B3-9AD5-4CF3-84E3-4488A28DE004}"/>
-    <hyperlink ref="A6" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="2.1.1.2 平均碩博士班修課學生人數" xr:uid="{7F1AEE9F-2AD4-4BDE-9E56-2B5294E92DEA}"/>
-    <hyperlink ref="A7" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" xr:uid="{B8F90095-ADDA-4770-B4CF-515A24D5C7CA}"/>
-    <hyperlink ref="A8" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="3.2.1.1 舉辦國際學術研討會數" xr:uid="{6C274637-99C7-4593-8778-B55AADC662A8}"/>
+    <hyperlink ref="B3" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="學士班繁星推薦入學錄取率" xr:uid="{623EFFA1-AD42-43F6-ADC8-C7ABFDA4D532}"/>
+    <hyperlink ref="B4" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="博士班招收國內重點大學畢業生比率" xr:uid="{2A1234A6-7A7B-40E8-B1A7-41574E7774AC}"/>
+    <hyperlink ref="B5" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="學士班獲獎助學金平均金額" xr:uid="{63D2180F-B162-4388-ADEE-61B81F6B5F43}"/>
+    <hyperlink ref="B6" location="'1.7.1.4 碩士班平均修業年限'!A1" display="碩士班平均修業年限" xr:uid="{BAC790BD-6600-43D5-90C8-30A6B583A06E}"/>
+    <hyperlink ref="B7" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="平均碩博士班修課學生人數" xr:uid="{F26DA89E-73A3-4527-99FF-996866DBCC06}"/>
+    <hyperlink ref="B8" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="各系所教師兼任本校二級學術行政主管人次" xr:uid="{223FE156-5E05-4C98-A931-A171554A5FEC}"/>
+    <hyperlink ref="B9" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="舉辦國際學術研討會數" xr:uid="{51B3744F-721D-428C-B963-2A5528F1BB4E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0B42FD4-DEC3-439C-9F77-2EFF9912B912}">
-  <sheetPr codeName="工作表2"/>
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F34B2CE4-61BD-4B7D-8017-247240314114}">
+  <sheetPr codeName="工作表1" filterMode="1"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5711,92 +5526,115 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="10">
-        <v>0.06</v>
-      </c>
-      <c r="D2" s="10">
-        <v>0.06</v>
-      </c>
-      <c r="E2" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="F2" s="10">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="D4" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="E4" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="F4" s="10">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="G4" s="9">
-        <v>999</v>
+      <c r="C4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G4" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val="-"/>
+      </customFilters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G4">
       <sortCondition descending="1" ref="G1:G4"/>
     </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+    <sortCondition ref="G2"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5805,12 +5643,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99AFACD9-11EC-4559-BE78-DC3DDB72915A}">
-  <sheetPr codeName="工作表3"/>
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F5345A6-739F-4BB2-AA12-9EB8A44BEABF}">
+  <sheetPr codeName="工作表2" filterMode="1"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5823,92 +5661,115 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="10">
-        <v>0.06</v>
-      </c>
-      <c r="D2" s="10">
-        <v>0.06</v>
-      </c>
-      <c r="E2" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="F2" s="10">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="D4" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="E4" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="F4" s="10">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="G4" s="9">
-        <v>999</v>
+      <c r="C4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G4" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val="-"/>
+      </customFilters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G4">
       <sortCondition descending="1" ref="G1:G4"/>
     </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+    <sortCondition ref="G2"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5917,12 +5778,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF76E936-EC59-4864-ADD1-24781379D861}">
-  <sheetPr codeName="工作表4"/>
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54AA11B5-99A7-4205-ABCB-E7600338C163}">
+  <sheetPr codeName="工作表3" filterMode="1"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5935,92 +5796,115 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="11">
-        <v>0.06</v>
-      </c>
-      <c r="D2" s="11">
-        <v>0.06</v>
-      </c>
-      <c r="E2" s="11">
-        <v>0.03</v>
-      </c>
-      <c r="F2" s="11">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="11">
-        <v>0.05</v>
-      </c>
-      <c r="D4" s="11">
-        <v>0.04</v>
-      </c>
-      <c r="E4" s="11">
-        <v>0.01</v>
-      </c>
-      <c r="F4" s="11">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="G4" s="9">
-        <v>999</v>
+      <c r="C4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G4" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val="-"/>
+      </customFilters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G4">
       <sortCondition descending="1" ref="G1:G4"/>
     </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+    <sortCondition ref="G2"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6029,12 +5913,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8D0318F-E325-47EE-9C08-656A39D4247C}">
-  <sheetPr codeName="工作表5"/>
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA011C5D-9561-4B49-AB83-100ABDD52426}">
+  <sheetPr codeName="工作表4" filterMode="1"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6047,92 +5931,115 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="D2" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="E2" s="12">
-        <v>0.03</v>
-      </c>
-      <c r="F2" s="12">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="D4" s="12">
-        <v>0.04</v>
-      </c>
-      <c r="E4" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="F4" s="12">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="G4" s="9">
-        <v>999</v>
+      <c r="C4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G4" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val="-"/>
+      </customFilters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G4">
       <sortCondition descending="1" ref="G1:G4"/>
     </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+    <sortCondition ref="G2"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6141,12 +6048,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD4F77EE-D609-49EB-BF59-5FC32549514F}">
-  <sheetPr codeName="工作表6"/>
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03FF39D-1045-4496-9387-ACDDD6992F87}">
+  <sheetPr codeName="工作表5" filterMode="1"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6159,92 +6066,115 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="D2" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="E2" s="12">
-        <v>0.03</v>
-      </c>
-      <c r="F2" s="12">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="D4" s="12">
-        <v>0.04</v>
-      </c>
-      <c r="E4" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="F4" s="12">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="G4" s="9">
-        <v>999</v>
+      <c r="C4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G4" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val="-"/>
+      </customFilters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G4">
       <sortCondition descending="1" ref="G1:G4"/>
     </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+    <sortCondition ref="G2"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6253,12 +6183,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0CB769-CA21-439C-BD57-87EA2F48C63E}">
-  <sheetPr codeName="工作表7"/>
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92563F93-1C8A-4854-834D-38EDA935BE75}">
+  <sheetPr codeName="工作表6" filterMode="1"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6271,92 +6201,115 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="D2" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="E2" s="12">
-        <v>0.03</v>
-      </c>
-      <c r="F2" s="12">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="D4" s="12">
-        <v>0.04</v>
-      </c>
-      <c r="E4" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="F4" s="12">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="G4" s="9">
-        <v>999</v>
+      <c r="C4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G4" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val="-"/>
+      </customFilters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G4">
       <sortCondition descending="1" ref="G1:G4"/>
     </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+    <sortCondition ref="G2"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6365,12 +6318,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2ED070C-EA8C-49ED-AE0A-3C2899B00982}">
-  <sheetPr codeName="工作表8"/>
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1103508B-464E-40D5-9496-90A4877395C2}">
+  <sheetPr codeName="工作表7" filterMode="1"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6383,92 +6336,115 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="D2" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="E2" s="12">
-        <v>0.03</v>
-      </c>
-      <c r="F2" s="12">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="D4" s="12">
-        <v>0.04</v>
-      </c>
-      <c r="E4" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="F4" s="12">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="G4" s="9">
-        <v>999</v>
+      <c r="C4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G4" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val="-"/>
+      </customFilters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G4">
       <sortCondition descending="1" ref="G1:G4"/>
     </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+    <sortCondition ref="G2"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/test/1. 各院彙整資料/創新國際學院.xlsx
+++ b/test/1. 各院彙整資料/創新國際學院.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\學評組工讀生\應數碩三_陳慎逸\3. Index-Evaluation-Analysis-Report\test\1. 各院彙整資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{700A86DF-0B59-4C84-A422-8272ADB346CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF1C44D-A9AE-4F2C-8C01-0C4854644510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="7" xr2:uid="{9D791A1C-48F4-402F-A5CF-657E947227B6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{8CAD56E1-075C-49FF-AC0F-538E9E30A719}"/>
   </bookViews>
   <sheets>
     <sheet name="小結" sheetId="1" r:id="rId1"/>
-    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="72" r:id="rId2"/>
-    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="73" r:id="rId3"/>
-    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="74" r:id="rId4"/>
-    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="75" r:id="rId5"/>
-    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="76" r:id="rId6"/>
-    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="77" r:id="rId7"/>
-    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="78" r:id="rId8"/>
+    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="93" r:id="rId2"/>
+    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="94" r:id="rId3"/>
+    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="95" r:id="rId4"/>
+    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="96" r:id="rId5"/>
+    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="97" r:id="rId6"/>
+    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="98" r:id="rId7"/>
+    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="99" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1.1.1.1 學士班繁星推薦入學錄取率'!$A$1:$G$4</definedName>
@@ -50,64 +50,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="32">
-  <si>
-    <t>創國學</t>
-  </si>
-  <si>
-    <t>全創碩</t>
-  </si>
-  <si>
-    <t>科系</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>簡稱</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>三年均值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>110年</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>109年</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>108年</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>排序欄</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>院均值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="41">
   <si>
     <t>Z23 創新國際學院（院加總 / 院均值）</t>
   </si>
   <si>
+    <t>創國學院</t>
+  </si>
+  <si>
     <t>ZU1 創新國際學院學士班</t>
+  </si>
+  <si>
+    <t>創國學</t>
   </si>
   <si>
     <t>ZM1 全球傳播與創新科技碩士學位學程</t>
   </si>
   <si>
     <t>全創碩</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>院加總</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>創國學院</t>
   </si>
   <si>
     <t>1.1.1.1</t>
@@ -152,21 +112,97 @@
     <t>舉辦國際學術研討會數</t>
   </si>
   <si>
-    <t>-</t>
+    <t>科系</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>簡稱</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>三年均值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>110年</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>109年</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>108年</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序欄</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>院均值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>全創碩</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>院加總</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均</t>
+  </si>
+  <si>
+    <t>小結 3</t>
+  </si>
+  <si>
+    <t>小結 2</t>
+  </si>
+  <si>
+    <t>小結 1</t>
+  </si>
+  <si>
+    <t>—</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>院三年均值為1.89%，低於（或等於）院三年均值者計有1個系，為創國學1.89%。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>無資料。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>院三年均值為92,225，高於（或等於）院三年均值者計有1個系，為創國學92,225。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>院三年均值為5.78，高於院三年均值者計有1個系，為全創碩7.78。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>院加總三年均值為0。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="0.00%;&quot;—&quot;;&quot;—&quot;"/>
-    <numFmt numFmtId="178" formatCode="#,##0;&quot;—&quot;;&quot;—&quot;"/>
-    <numFmt numFmtId="179" formatCode="#,##0.00;&quot;—&quot;;&quot;—&quot;"/>
+    <numFmt numFmtId="177" formatCode="&quot;—&quot;"/>
+    <numFmt numFmtId="178" formatCode="#,##0;\-#,###;0"/>
+    <numFmt numFmtId="179" formatCode="###.##%;\-###.##%;0%"/>
+    <numFmt numFmtId="180" formatCode="#,##0.##;\-#,##0.##;0"/>
+    <numFmt numFmtId="181" formatCode="#,###;#,###;0"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -349,7 +385,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -384,15 +420,24 @@
     <xf numFmtId="178" fontId="12" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="12" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="12" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="12" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="3" xr:uid="{CA3EB41B-BC28-4A3B-A20A-EFCCFEEE77F1}"/>
-    <cellStyle name="一般 3" xfId="2" xr:uid="{1B5E1784-8EEA-4686-9BCB-CD0F35B96809}"/>
-    <cellStyle name="百分比 2" xfId="4" xr:uid="{6400155B-4391-4C68-893A-BC23A5A74159}"/>
+    <cellStyle name="一般 2" xfId="3" xr:uid="{0B77A8D5-E034-45BD-9D80-888B502F15A6}"/>
+    <cellStyle name="一般 3" xfId="2" xr:uid="{BA2C6C24-3181-4C25-B027-5A97BBE325BA}"/>
+    <cellStyle name="百分比 2" xfId="4" xr:uid="{86CE4EAF-5735-47AE-B7B0-345AA74217AD}"/>
     <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -472,8 +517,11 @@
             <c:strRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>創國學</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -483,9 +531,12 @@
             <c:numRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$F$2:$F$4</c:f>
               <c:numCache>
-                <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:formatCode>"—"</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -493,7 +544,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-289C-4D94-A2C6-0283185FF086}"/>
+              <c16:uniqueId val="{00000000-C4E2-4433-9511-DD8F3D37D0B6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -530,8 +581,11 @@
             <c:strRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>創國學</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -541,9 +595,12 @@
             <c:numRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$E$2:$E$4</c:f>
               <c:numCache>
-                <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:formatCode>"—"</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -551,7 +608,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-289C-4D94-A2C6-0283185FF086}"/>
+              <c16:uniqueId val="{00000001-C4E2-4433-9511-DD8F3D37D0B6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -588,8 +645,11 @@
             <c:strRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>創國學</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -599,17 +659,20 @@
             <c:numRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$D$2:$D$4</c:f>
               <c:numCache>
-                <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
+                <c:formatCode>###.##%;\-###.##%;0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.89E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.89E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-289C-4D94-A2C6-0283185FF086}"/>
+              <c16:uniqueId val="{00000002-C4E2-4433-9511-DD8F3D37D0B6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -724,7 +787,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-289C-4D94-A2C6-0283185FF086}"/>
+                  <c16:uniqueId val="{00000003-C4E2-4433-9511-DD8F3D37D0B6}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -802,8 +865,11 @@
             <c:strRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>創國學</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -813,10 +879,13 @@
             <c:numRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$C$2:$C$4</c:f>
               <c:numCache>
-                <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
+                <c:formatCode>###.##%;\-###.##%;0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.89E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.89E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -824,7 +893,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-289C-4D94-A2C6-0283185FF086}"/>
+              <c16:uniqueId val="{00000004-C4E2-4433-9511-DD8F3D37D0B6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -924,7 +993,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:numFmt formatCode="0.0%;\-0.0%;0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1118,7 +1187,7 @@
             <c:numRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$F$2:$F$4</c:f>
               <c:numCache>
-                <c:formatCode>0.00%;"—";"—"</c:formatCode>
+                <c:formatCode>"—"</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -1128,7 +1197,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7EB3-4BC9-8B94-DFEE2B7CE11E}"/>
+              <c16:uniqueId val="{00000000-2766-4477-9473-2A840574F043}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1176,7 +1245,7 @@
             <c:numRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$E$2:$E$4</c:f>
               <c:numCache>
-                <c:formatCode>0.00%;"—";"—"</c:formatCode>
+                <c:formatCode>"—"</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -1186,7 +1255,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7EB3-4BC9-8B94-DFEE2B7CE11E}"/>
+              <c16:uniqueId val="{00000001-2766-4477-9473-2A840574F043}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1234,7 +1303,7 @@
             <c:numRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$D$2:$D$4</c:f>
               <c:numCache>
-                <c:formatCode>0.00%;"—";"—"</c:formatCode>
+                <c:formatCode>"—"</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -1244,7 +1313,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-7EB3-4BC9-8B94-DFEE2B7CE11E}"/>
+              <c16:uniqueId val="{00000002-2766-4477-9473-2A840574F043}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1359,7 +1428,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-7EB3-4BC9-8B94-DFEE2B7CE11E}"/>
+                  <c16:uniqueId val="{00000003-2766-4477-9473-2A840574F043}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1448,7 +1517,7 @@
             <c:numRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$C$2:$C$4</c:f>
               <c:numCache>
-                <c:formatCode>0.00%;"—";"—"</c:formatCode>
+                <c:formatCode>"—"</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -1459,7 +1528,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-7EB3-4BC9-8B94-DFEE2B7CE11E}"/>
+              <c16:uniqueId val="{00000004-2766-4477-9473-2A840574F043}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1559,7 +1628,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:numFmt formatCode="0%;\-0%;0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1742,8 +1811,11 @@
             <c:strRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>創國學</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -1753,9 +1825,12 @@
             <c:numRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$F$2:$F$4</c:f>
               <c:numCache>
-                <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:formatCode>"—"</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1763,7 +1838,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3E20-47E5-BD04-6A7C4A0066BD}"/>
+              <c16:uniqueId val="{00000000-AF44-400D-851D-7394A81EC722}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1800,8 +1875,11 @@
             <c:strRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>創國學</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -1811,17 +1889,20 @@
             <c:numRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$E$2:$E$4</c:f>
               <c:numCache>
-                <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
+                <c:formatCode>#,##0;\-#,###;0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>73593.58</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>73593.58</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3E20-47E5-BD04-6A7C4A0066BD}"/>
+              <c16:uniqueId val="{00000001-AF44-400D-851D-7394A81EC722}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1858,8 +1939,11 @@
             <c:strRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>創國學</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -1869,17 +1953,20 @@
             <c:numRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$D$2:$D$4</c:f>
               <c:numCache>
-                <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
+                <c:formatCode>#,##0;\-#,###;0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>101541.13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>101541.13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3E20-47E5-BD04-6A7C4A0066BD}"/>
+              <c16:uniqueId val="{00000002-AF44-400D-851D-7394A81EC722}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1994,7 +2081,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-3E20-47E5-BD04-6A7C4A0066BD}"/>
+                  <c16:uniqueId val="{00000003-AF44-400D-851D-7394A81EC722}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2072,8 +2159,11 @@
             <c:strRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>創國學</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -2083,10 +2173,13 @@
             <c:numRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$C$2:$C$4</c:f>
               <c:numCache>
-                <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
+                <c:formatCode>#,##0;\-#,###;0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>92225.279999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>92225.279999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2094,7 +2187,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-3E20-47E5-BD04-6A7C4A0066BD}"/>
+              <c16:uniqueId val="{00000004-AF44-400D-851D-7394A81EC722}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2194,7 +2287,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:numFmt formatCode="#,##0;\-#,###;0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2388,7 +2481,7 @@
             <c:numRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$F$2:$F$4</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
+                <c:formatCode>"—"</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -2398,7 +2491,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F1C1-4C5C-8825-EDC7A42B57C6}"/>
+              <c16:uniqueId val="{00000000-35D7-4543-8734-ECE3B1470CBE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2446,7 +2539,7 @@
             <c:numRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$E$2:$E$4</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
+                <c:formatCode>"—"</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -2456,7 +2549,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F1C1-4C5C-8825-EDC7A42B57C6}"/>
+              <c16:uniqueId val="{00000001-35D7-4543-8734-ECE3B1470CBE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2504,7 +2597,7 @@
             <c:numRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$D$2:$D$4</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
+                <c:formatCode>"—"</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -2514,7 +2607,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F1C1-4C5C-8825-EDC7A42B57C6}"/>
+              <c16:uniqueId val="{00000002-35D7-4543-8734-ECE3B1470CBE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2629,7 +2722,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-F1C1-4C5C-8825-EDC7A42B57C6}"/>
+                  <c16:uniqueId val="{00000003-35D7-4543-8734-ECE3B1470CBE}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2718,7 +2811,7 @@
             <c:numRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$C$2:$C$4</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
+                <c:formatCode>"—"</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -2729,7 +2822,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-F1C1-4C5C-8825-EDC7A42B57C6}"/>
+              <c16:uniqueId val="{00000004-35D7-4543-8734-ECE3B1470CBE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2829,7 +2922,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:numFmt formatCode="0.0;\-0.0;0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3012,8 +3105,11 @@
             <c:strRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>全創碩</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -3023,9 +3119,12 @@
             <c:numRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$F$2:$F$4</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:formatCode>"—"</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3033,7 +3132,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2E51-4953-B3FF-1B560BF86306}"/>
+              <c16:uniqueId val="{00000000-1284-437B-BA10-BD5677EBACB8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3070,8 +3169,11 @@
             <c:strRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>全創碩</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -3081,17 +3183,20 @@
             <c:numRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$E$2:$E$4</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:formatCode>#,###;#,###;0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="&quot;—&quot;">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2E51-4953-B3FF-1B560BF86306}"/>
+              <c16:uniqueId val="{00000001-1284-437B-BA10-BD5677EBACB8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3128,8 +3233,11 @@
             <c:strRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>全創碩</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -3139,17 +3247,20 @@
             <c:numRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$D$2:$D$4</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>7.78</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2E51-4953-B3FF-1B560BF86306}"/>
+              <c16:uniqueId val="{00000002-1284-437B-BA10-BD5677EBACB8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3264,7 +3375,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-2E51-4953-B3FF-1B560BF86306}"/>
+                  <c16:uniqueId val="{00000003-1284-437B-BA10-BD5677EBACB8}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3342,8 +3453,11 @@
             <c:strRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>全創碩</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -3353,10 +3467,13 @@
             <c:numRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$C$2:$C$4</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>7.78</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.78</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3364,7 +3481,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-2E51-4953-B3FF-1B560BF86306}"/>
+              <c16:uniqueId val="{00000004-1284-437B-BA10-BD5677EBACB8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3464,7 +3581,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:numFmt formatCode="#,##0;\-#,###;0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3647,8 +3764,11 @@
             <c:strRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>創國學</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>院加總</c:v>
                 </c:pt>
               </c:strCache>
@@ -3658,9 +3778,12 @@
             <c:numRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$F$2:$F$4</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:formatCode>"—"</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3668,7 +3791,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FE80-44D0-A860-C369A4773AAC}"/>
+              <c16:uniqueId val="{00000000-56F7-4E97-8253-7A221492091A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3705,8 +3828,11 @@
             <c:strRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>創國學</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>院加總</c:v>
                 </c:pt>
               </c:strCache>
@@ -3716,9 +3842,12 @@
             <c:numRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$E$2:$E$4</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="&quot;—&quot;">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3726,7 +3855,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FE80-44D0-A860-C369A4773AAC}"/>
+              <c16:uniqueId val="{00000001-56F7-4E97-8253-7A221492091A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3763,8 +3892,11 @@
             <c:strRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>創國學</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>院加總</c:v>
                 </c:pt>
               </c:strCache>
@@ -3774,9 +3906,12 @@
             <c:numRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$D$2:$D$4</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3784,7 +3919,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-FE80-44D0-A860-C369A4773AAC}"/>
+              <c16:uniqueId val="{00000002-56F7-4E97-8253-7A221492091A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3899,7 +4034,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-FE80-44D0-A860-C369A4773AAC}"/>
+                  <c16:uniqueId val="{00000003-56F7-4E97-8253-7A221492091A}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3977,8 +4112,11 @@
             <c:strRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>創國學</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>院加總</c:v>
                 </c:pt>
               </c:strCache>
@@ -3988,9 +4126,12 @@
             <c:numRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$C$2:$C$4</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3999,7 +4140,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-FE80-44D0-A860-C369A4773AAC}"/>
+              <c16:uniqueId val="{00000004-56F7-4E97-8253-7A221492091A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4099,7 +4240,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:numFmt formatCode="0.0;\-0.0;0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4293,7 +4434,7 @@
             <c:numRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$F$2:$F$4</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
+                <c:formatCode>"—"</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -4303,7 +4444,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3793-48DD-B774-8AA72AE432AE}"/>
+              <c16:uniqueId val="{00000000-FD94-49B6-A593-D89DBA43832E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4351,7 +4492,7 @@
             <c:numRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$E$2:$E$4</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
+                <c:formatCode>"—"</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -4361,7 +4502,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3793-48DD-B774-8AA72AE432AE}"/>
+              <c16:uniqueId val="{00000001-FD94-49B6-A593-D89DBA43832E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4409,7 +4550,7 @@
             <c:numRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$D$2:$D$4</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
+                <c:formatCode>"—"</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -4419,7 +4560,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3793-48DD-B774-8AA72AE432AE}"/>
+              <c16:uniqueId val="{00000002-FD94-49B6-A593-D89DBA43832E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4534,7 +4675,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-3793-48DD-B774-8AA72AE432AE}"/>
+                  <c16:uniqueId val="{00000003-FD94-49B6-A593-D89DBA43832E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4623,7 +4764,7 @@
             <c:numRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$C$2:$C$4</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
+                <c:formatCode>"—"</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -4634,7 +4775,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-3793-48DD-B774-8AA72AE432AE}"/>
+              <c16:uniqueId val="{00000004-FD94-49B6-A593-D89DBA43832E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4734,7 +4875,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:numFmt formatCode="0.0;\-0.0;0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4863,7 +5004,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5ED56B4-3E20-49B1-9D48-0B9D273D0F11}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2D9CAB2-3823-4403-8ABE-F6E2EA10E3EF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4896,7 +5037,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5312CEF4-87C8-48B3-A17E-A14C3D6A9B78}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6863CA12-01BC-4CE4-A260-A472E46990CC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4929,7 +5070,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1244E926-C900-46D8-9C9F-11838C6A4EDF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D8D599C-FD6F-4F59-83E4-01587D1E266E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4962,7 +5103,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2BEA404-0B68-406E-9AC4-2462CC453E78}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7C7B76-99A5-48C0-8558-C6E75CF4265C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4995,7 +5136,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94D1D6AA-E63B-414F-947A-B5A06BD80617}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{050EEC65-02F1-4DFE-B0AE-99AD978D10D6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5028,7 +5169,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73FE43F8-C5E6-42C9-8138-B32567779DAC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DB5F004-5150-4533-B06A-2407B006D654}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5061,7 +5202,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F01D1E7E-B898-4948-9095-CA145D3CA6AC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDE0D6EE-C913-4B91-93CD-F76A64DB08C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5388,7 +5529,7 @@
 </file>
 
 <file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{FD2AA3A3-9010-41C9-8A41-4FB9D52DB891}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{25B963D2-49C6-4AB0-AFEC-DB5D6D14DB9A}">
   <we:reference id="wa104380862" version="1.5.0.0" store="zh-TW" storeType="OMEX"/>
   <we:alternateReferences>
     <we:reference id="wa104380862" version="1.5.0.0" store="" storeType="OMEX"/>
@@ -5400,9 +5541,9 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AD6DA52-5D76-49F2-B38F-7870EAF3C7DA}">
-  <sheetPr codeName="工作表1"/>
-  <dimension ref="A1:D9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3473C30-79C4-44BB-9561-C21599816FE1}">
+  <sheetPr codeName="工作表8"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5416,223 +5557,308 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
+      </c>
+      <c r="C3" s="12">
+        <v>1</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
+      </c>
+      <c r="C5" s="12">
+        <v>1</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="12">
+        <v>1</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>27</v>
+        <v>15</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
+      </c>
+      <c r="C9" s="12">
+        <v>1</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="12">
+        <v>1</v>
+      </c>
+      <c r="D10" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="12">
+        <v>1</v>
+      </c>
+      <c r="D12" s="12">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="學士班繁星推薦入學錄取率" xr:uid="{623EFFA1-AD42-43F6-ADC8-C7ABFDA4D532}"/>
-    <hyperlink ref="B4" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="博士班招收國內重點大學畢業生比率" xr:uid="{2A1234A6-7A7B-40E8-B1A7-41574E7774AC}"/>
-    <hyperlink ref="B5" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="學士班獲獎助學金平均金額" xr:uid="{63D2180F-B162-4388-ADEE-61B81F6B5F43}"/>
-    <hyperlink ref="B6" location="'1.7.1.4 碩士班平均修業年限'!A1" display="碩士班平均修業年限" xr:uid="{BAC790BD-6600-43D5-90C8-30A6B583A06E}"/>
-    <hyperlink ref="B7" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="平均碩博士班修課學生人數" xr:uid="{F26DA89E-73A3-4527-99FF-996866DBCC06}"/>
-    <hyperlink ref="B8" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="各系所教師兼任本校二級學術行政主管人次" xr:uid="{223FE156-5E05-4C98-A931-A171554A5FEC}"/>
-    <hyperlink ref="B9" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="舉辦國際學術研討會數" xr:uid="{51B3744F-721D-428C-B963-2A5528F1BB4E}"/>
+    <hyperlink ref="B3" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="學士班繁星推薦入學錄取率" xr:uid="{F1A92B45-892F-40E5-B059-C7BB2BDAF499}"/>
+    <hyperlink ref="B4" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="博士班招收國內重點大學畢業生比率" xr:uid="{5EDFA56D-91CE-4743-9D90-728F61CB5468}"/>
+    <hyperlink ref="B5" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="學士班獲獎助學金平均金額" xr:uid="{5B1CA15F-3B8E-4777-A805-143FA7D625B4}"/>
+    <hyperlink ref="B6" location="'1.7.1.4 碩士班平均修業年限'!A1" display="碩士班平均修業年限" xr:uid="{36242A28-FB2A-4BDC-866B-D69E80099F36}"/>
+    <hyperlink ref="B8" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="平均碩博士班修課學生人數" xr:uid="{80919ACF-4AE4-44B2-8F41-BB00EF5CCB4D}"/>
+    <hyperlink ref="B9" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="各系所教師兼任本校二級學術行政主管人次" xr:uid="{C788B96F-0364-4C6E-993D-34F517A39AE8}"/>
+    <hyperlink ref="B11" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="舉辦國際學術研討會數" xr:uid="{770B8469-8355-4587-A291-666EFA269B52}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F34B2CE4-61BD-4B7D-8017-247240314114}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D43A128F-D51B-4C4A-B144-7F599006AB25}">
   <sheetPr codeName="工作表1" filterMode="1"/>
   <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="6" customWidth="1"/>
-    <col min="4" max="8" width="9" style="6"/>
+    <col min="3" max="4" width="6.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="3.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>30</v>
+        <v>3</v>
+      </c>
+      <c r="C2" s="13">
+        <v>1.89E-2</v>
+      </c>
+      <c r="D2" s="13">
+        <v>1.89E-2</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="13">
+        <v>1.89E-2</v>
+      </c>
+      <c r="D3" s="13">
+        <v>1.89E-2</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="9">
         <v>999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G4" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="6">
       <customFilters>
-        <customFilter operator="notEqual" val="-"/>
+        <customFilter operator="notEqual" val="—"/>
       </customFilters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G4">
-      <sortCondition descending="1" ref="G1:G4"/>
+      <sortCondition ref="G1:G4"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G3">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5643,68 +5869,68 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F5345A6-739F-4BB2-AA12-9EB8A44BEABF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DE36607-D4AD-48D5-A988-BAA7AB6FCAD1}">
   <sheetPr codeName="工作表2" filterMode="1"/>
   <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="6" customWidth="1"/>
-    <col min="4" max="8" width="9" style="6"/>
+    <col min="3" max="6" width="3.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G2" s="9">
         <v>999</v>
@@ -5712,59 +5938,59 @@
     </row>
     <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G4" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="6">
       <customFilters>
-        <customFilter operator="notEqual" val="-"/>
+        <customFilter operator="notEqual" val="—"/>
       </customFilters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G4">
-      <sortCondition descending="1" ref="G1:G4"/>
+      <sortCondition ref="G1:G4"/>
     </sortState>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
@@ -5778,131 +6004,134 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54AA11B5-99A7-4205-ABCB-E7600338C163}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFC964E2-2561-4F93-93F4-DDF1F8507727}">
   <sheetPr codeName="工作表3" filterMode="1"/>
   <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="6" customWidth="1"/>
-    <col min="4" max="8" width="9" style="6"/>
+    <col min="3" max="3" width="6.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>30</v>
+        <v>3</v>
+      </c>
+      <c r="C2" s="11">
+        <v>92225.279999999999</v>
+      </c>
+      <c r="D2" s="11">
+        <v>101541.13</v>
+      </c>
+      <c r="E2" s="11">
+        <v>73593.58</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="G2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="11">
+        <v>92225.279999999999</v>
+      </c>
+      <c r="D3" s="11">
+        <v>101541.13</v>
+      </c>
+      <c r="E3" s="11">
+        <v>73593.58</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="9">
         <v>999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G4" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="6">
       <customFilters>
-        <customFilter operator="notEqual" val="-"/>
+        <customFilter operator="notEqual" val="—"/>
       </customFilters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G4">
-      <sortCondition descending="1" ref="G1:G4"/>
+      <sortCondition ref="G1:G4"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G3">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5913,68 +6142,68 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA011C5D-9561-4B49-AB83-100ABDD52426}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90052EE4-2D78-4AEE-9CCA-AE8F882334C8}">
   <sheetPr codeName="工作表4" filterMode="1"/>
   <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="6" customWidth="1"/>
-    <col min="4" max="8" width="9" style="6"/>
+    <col min="3" max="6" width="3.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="G2" s="9">
         <v>999</v>
@@ -5982,59 +6211,59 @@
     </row>
     <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>30</v>
+        <v>3</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G4" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="6">
       <customFilters>
-        <customFilter operator="notEqual" val="-"/>
+        <customFilter operator="notEqual" val="—"/>
       </customFilters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G4">
-      <sortCondition descending="1" ref="G1:G4"/>
+      <sortCondition ref="G1:G4"/>
     </sortState>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
@@ -6048,131 +6277,132 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03FF39D-1045-4496-9387-ACDDD6992F87}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{332CD964-76CF-47E5-91DF-70FB9769B543}">
   <sheetPr codeName="工作表5" filterMode="1"/>
   <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="6" customWidth="1"/>
-    <col min="4" max="8" width="9" style="6"/>
+    <col min="3" max="4" width="4.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="3.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="C2" s="14">
+        <v>7.78</v>
+      </c>
+      <c r="D2" s="14">
+        <v>7.78</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="G2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="14">
+        <v>5.78</v>
+      </c>
+      <c r="D3" s="14">
+        <v>5.45</v>
+      </c>
+      <c r="E3" s="15">
+        <v>8</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="9">
         <v>999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>30</v>
+        <v>3</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G4" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="6">
       <customFilters>
-        <customFilter operator="notEqual" val="-"/>
+        <customFilter operator="notEqual" val="—"/>
       </customFilters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G4">
-      <sortCondition descending="1" ref="G1:G4"/>
+      <sortCondition ref="G1:G4"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G3">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6183,131 +6413,131 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92563F93-1C8A-4854-834D-38EDA935BE75}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{466E1DDA-DF30-4C95-AFCC-D66C8CF6061E}">
   <sheetPr codeName="工作表6" filterMode="1"/>
   <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="6" customWidth="1"/>
-    <col min="4" max="8" width="9" style="6"/>
+    <col min="3" max="6" width="3.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>30</v>
+        <v>3</v>
+      </c>
+      <c r="C2" s="14">
+        <v>0</v>
+      </c>
+      <c r="D2" s="14">
+        <v>0</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="G2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="14">
+        <v>0</v>
+      </c>
+      <c r="D3" s="14">
+        <v>0</v>
+      </c>
+      <c r="E3" s="14">
+        <v>0</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="9">
         <v>999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G4" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="6">
       <customFilters>
-        <customFilter operator="notEqual" val="-"/>
+        <customFilter operator="notEqual" val="—"/>
       </customFilters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G4">
-      <sortCondition descending="1" ref="G1:G4"/>
+      <sortCondition ref="G1:G4"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G3">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6318,68 +6548,68 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1103508B-464E-40D5-9496-90A4877395C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{646BBAF5-9F12-4F71-83AD-5F182AF3D3BA}">
   <sheetPr codeName="工作表7" filterMode="1"/>
   <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="6" customWidth="1"/>
-    <col min="4" max="8" width="9" style="6"/>
+    <col min="3" max="6" width="3.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="G2" s="9">
         <v>999</v>
@@ -6387,59 +6617,59 @@
     </row>
     <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>30</v>
+        <v>3</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G4" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="6">
       <customFilters>
-        <customFilter operator="notEqual" val="-"/>
+        <customFilter operator="notEqual" val="—"/>
       </customFilters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G4">
-      <sortCondition descending="1" ref="G1:G4"/>
+      <sortCondition ref="G1:G4"/>
     </sortState>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">

--- a/test/1. 各院彙整資料/創新國際學院.xlsx
+++ b/test/1. 各院彙整資料/創新國際學院.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\學評組工讀生\應數碩三_陳慎逸\3. Index-Evaluation-Analysis-Report\test\1. 各院彙整資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF1C44D-A9AE-4F2C-8C01-0C4854644510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C5C6BA-48E1-46ED-9DC5-83DA4C0F6949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{8CAD56E1-075C-49FF-AC0F-538E9E30A719}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="14580" windowHeight="10230" firstSheet="5" activeTab="7" xr2:uid="{8CAD56E1-075C-49FF-AC0F-538E9E30A719}"/>
   </bookViews>
   <sheets>
     <sheet name="小結" sheetId="1" r:id="rId1"/>
-    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="93" r:id="rId2"/>
-    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="94" r:id="rId3"/>
-    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="95" r:id="rId4"/>
-    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="96" r:id="rId5"/>
-    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="97" r:id="rId6"/>
-    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="98" r:id="rId7"/>
-    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="99" r:id="rId8"/>
+    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="100" r:id="rId2"/>
+    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="101" r:id="rId3"/>
+    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="102" r:id="rId4"/>
+    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="103" r:id="rId5"/>
+    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="104" r:id="rId6"/>
+    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="105" r:id="rId7"/>
+    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="106" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1.1.1.1 學士班繁星推薦入學錄取率'!$A$1:$G$4</definedName>
@@ -158,38 +158,31 @@
     <t>小結 3</t>
   </si>
   <si>
-    <t>小結 2</t>
+    <t>平均 1</t>
   </si>
   <si>
-    <t>小結 1</t>
+    <t>平均 2</t>
   </si>
   <si>
     <t>—</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>院三年均值為1.89%，低於（或等於）院三年均值者計有1個系，為創國學1.89%。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>無資料。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>院三年均值為92,225，高於（或等於）院三年均值者計有1個系，為創國學92,225。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>院三年均值為5.78，高於院三年均值者計有1個系，為全創碩7.78。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>院加總三年均值為0。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -198,9 +191,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="&quot;—&quot;"/>
-    <numFmt numFmtId="178" formatCode="#,##0;\-#,###;0"/>
-    <numFmt numFmtId="179" formatCode="###.##%;\-###.##%;0%"/>
+    <numFmt numFmtId="177" formatCode="###.##%;\-###.##%;0%"/>
+    <numFmt numFmtId="178" formatCode="&quot;—&quot;"/>
+    <numFmt numFmtId="179" formatCode="#,##0;\-#,###;0"/>
     <numFmt numFmtId="180" formatCode="#,##0.##;\-#,##0.##;0"/>
     <numFmt numFmtId="181" formatCode="#,###;#,###;0"/>
   </numFmts>
@@ -420,9 +413,6 @@
     <xf numFmtId="178" fontId="12" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="12" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -430,6 +420,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="12" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -544,7 +537,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C4E2-4433-9511-DD8F3D37D0B6}"/>
+              <c16:uniqueId val="{00000000-0E23-4EB3-AF15-3AFD9C29A570}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -608,7 +601,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C4E2-4433-9511-DD8F3D37D0B6}"/>
+              <c16:uniqueId val="{00000001-0E23-4EB3-AF15-3AFD9C29A570}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -672,7 +665,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C4E2-4433-9511-DD8F3D37D0B6}"/>
+              <c16:uniqueId val="{00000002-0E23-4EB3-AF15-3AFD9C29A570}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -730,7 +723,7 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="0"/>
+              <c:idx val="1"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -785,9 +778,6 @@
                       <a:avLst/>
                     </a:prstGeom>
                   </c15:spPr>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-C4E2-4433-9511-DD8F3D37D0B6}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -893,7 +883,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-C4E2-4433-9511-DD8F3D37D0B6}"/>
+              <c16:uniqueId val="{00000004-0E23-4EB3-AF15-3AFD9C29A570}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1197,7 +1187,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2766-4477-9473-2A840574F043}"/>
+              <c16:uniqueId val="{00000000-0A15-4142-AF12-F1C1377579A0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1255,7 +1245,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2766-4477-9473-2A840574F043}"/>
+              <c16:uniqueId val="{00000001-0A15-4142-AF12-F1C1377579A0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1313,7 +1303,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2766-4477-9473-2A840574F043}"/>
+              <c16:uniqueId val="{00000002-0A15-4142-AF12-F1C1377579A0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1428,7 +1418,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-2766-4477-9473-2A840574F043}"/>
+                  <c16:uniqueId val="{00000003-0A15-4142-AF12-F1C1377579A0}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1528,7 +1518,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-2766-4477-9473-2A840574F043}"/>
+              <c16:uniqueId val="{00000004-0A15-4142-AF12-F1C1377579A0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1838,7 +1828,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AF44-400D-851D-7394A81EC722}"/>
+              <c16:uniqueId val="{00000000-E8F1-4DF8-8B4A-D6B09CC1CEFE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1902,7 +1892,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-AF44-400D-851D-7394A81EC722}"/>
+              <c16:uniqueId val="{00000001-E8F1-4DF8-8B4A-D6B09CC1CEFE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1966,7 +1956,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-AF44-400D-851D-7394A81EC722}"/>
+              <c16:uniqueId val="{00000002-E8F1-4DF8-8B4A-D6B09CC1CEFE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2024,7 +2014,7 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="0"/>
+              <c:idx val="1"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -2079,9 +2069,6 @@
                       <a:avLst/>
                     </a:prstGeom>
                   </c15:spPr>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-AF44-400D-851D-7394A81EC722}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2187,7 +2174,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-AF44-400D-851D-7394A81EC722}"/>
+              <c16:uniqueId val="{00000004-E8F1-4DF8-8B4A-D6B09CC1CEFE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2491,7 +2478,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-35D7-4543-8734-ECE3B1470CBE}"/>
+              <c16:uniqueId val="{00000000-BD8A-432C-9D96-A7DA9EC57A58}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2549,7 +2536,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-35D7-4543-8734-ECE3B1470CBE}"/>
+              <c16:uniqueId val="{00000001-BD8A-432C-9D96-A7DA9EC57A58}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2607,7 +2594,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-35D7-4543-8734-ECE3B1470CBE}"/>
+              <c16:uniqueId val="{00000002-BD8A-432C-9D96-A7DA9EC57A58}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2722,7 +2709,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-35D7-4543-8734-ECE3B1470CBE}"/>
+                  <c16:uniqueId val="{00000003-BD8A-432C-9D96-A7DA9EC57A58}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2822,7 +2809,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-35D7-4543-8734-ECE3B1470CBE}"/>
+              <c16:uniqueId val="{00000004-BD8A-432C-9D96-A7DA9EC57A58}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3132,7 +3119,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1284-437B-BA10-BD5677EBACB8}"/>
+              <c16:uniqueId val="{00000000-DA46-4015-BF57-203D6A462CB5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3196,7 +3183,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1284-437B-BA10-BD5677EBACB8}"/>
+              <c16:uniqueId val="{00000001-DA46-4015-BF57-203D6A462CB5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3260,7 +3247,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-1284-437B-BA10-BD5677EBACB8}"/>
+              <c16:uniqueId val="{00000002-DA46-4015-BF57-203D6A462CB5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3318,7 +3305,7 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="0"/>
+              <c:idx val="1"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -3373,9 +3360,6 @@
                       <a:avLst/>
                     </a:prstGeom>
                   </c15:spPr>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-1284-437B-BA10-BD5677EBACB8}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3481,7 +3465,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-1284-437B-BA10-BD5677EBACB8}"/>
+              <c16:uniqueId val="{00000004-DA46-4015-BF57-203D6A462CB5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3791,7 +3775,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-56F7-4E97-8253-7A221492091A}"/>
+              <c16:uniqueId val="{00000000-ABE6-4F7C-946E-421B6C0FBC15}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3855,7 +3839,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-56F7-4E97-8253-7A221492091A}"/>
+              <c16:uniqueId val="{00000001-ABE6-4F7C-946E-421B6C0FBC15}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3919,7 +3903,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-56F7-4E97-8253-7A221492091A}"/>
+              <c16:uniqueId val="{00000002-ABE6-4F7C-946E-421B6C0FBC15}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3977,7 +3961,7 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="0"/>
+              <c:idx val="1"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -4032,9 +4016,6 @@
                       <a:avLst/>
                     </a:prstGeom>
                   </c15:spPr>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-56F7-4E97-8253-7A221492091A}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4140,7 +4121,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-56F7-4E97-8253-7A221492091A}"/>
+              <c16:uniqueId val="{00000004-ABE6-4F7C-946E-421B6C0FBC15}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4444,7 +4425,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FD94-49B6-A593-D89DBA43832E}"/>
+              <c16:uniqueId val="{00000000-500A-46B8-8E83-95E5B7932E85}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4502,7 +4483,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FD94-49B6-A593-D89DBA43832E}"/>
+              <c16:uniqueId val="{00000001-500A-46B8-8E83-95E5B7932E85}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4560,7 +4541,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-FD94-49B6-A593-D89DBA43832E}"/>
+              <c16:uniqueId val="{00000002-500A-46B8-8E83-95E5B7932E85}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4675,7 +4656,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-FD94-49B6-A593-D89DBA43832E}"/>
+                  <c16:uniqueId val="{00000003-500A-46B8-8E83-95E5B7932E85}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4775,7 +4756,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-FD94-49B6-A593-D89DBA43832E}"/>
+              <c16:uniqueId val="{00000004-500A-46B8-8E83-95E5B7932E85}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5004,7 +4985,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2D9CAB2-3823-4403-8ABE-F6E2EA10E3EF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5D2DE96-79F4-4FE4-AF86-5B2A0134D8C6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5037,7 +5018,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6863CA12-01BC-4CE4-A260-A472E46990CC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E3DAE65-F7E1-4A79-AE33-97F4A287ED26}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5070,7 +5051,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D8D599C-FD6F-4F59-83E4-01587D1E266E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C125F85-BD93-46B6-9ED8-0AAE65D788D8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5103,7 +5084,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7C7B76-99A5-48C0-8558-C6E75CF4265C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A637E07-9062-4A5B-B39F-E5E70ACDC3CD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5136,7 +5117,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{050EEC65-02F1-4DFE-B0AE-99AD978D10D6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E151721E-239F-4CB9-BB47-386ABF5D841D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5169,7 +5150,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DB5F004-5150-4533-B06A-2407B006D654}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4FCF4E4-DF4B-48AB-9727-14A446502912}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5202,7 +5183,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDE0D6EE-C913-4B91-93CD-F76A64DB08C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8E41868-019F-42A2-8A59-D52C5B32446F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5584,10 +5565,10 @@
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="15">
         <v>1</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="15" t="s">
         <v>34</v>
       </c>
     </row>
@@ -5598,10 +5579,10 @@
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="12" t="s">
+      <c r="C4" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="15" t="s">
         <v>34</v>
       </c>
     </row>
@@ -5612,10 +5593,10 @@
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="15">
         <v>1</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="15" t="s">
         <v>34</v>
       </c>
     </row>
@@ -5626,10 +5607,10 @@
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="12" t="s">
+      <c r="C6" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>34</v>
       </c>
     </row>
@@ -5638,12 +5619,12 @@
         <v>30</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="12">
+        <v>32</v>
+      </c>
+      <c r="C7" s="15">
         <v>1</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="15" t="s">
         <v>40</v>
       </c>
     </row>
@@ -5654,10 +5635,10 @@
       <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="12">
+      <c r="C8" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="15">
         <v>1</v>
       </c>
     </row>
@@ -5668,10 +5649,10 @@
       <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="15">
         <v>1</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="15" t="s">
         <v>34</v>
       </c>
     </row>
@@ -5680,12 +5661,12 @@
         <v>30</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="12">
+        <v>33</v>
+      </c>
+      <c r="C10" s="15">
         <v>1</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="15">
         <v>1</v>
       </c>
     </row>
@@ -5696,10 +5677,10 @@
       <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="12" t="s">
+      <c r="C11" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>34</v>
       </c>
     </row>
@@ -5710,30 +5691,30 @@
       <c r="B12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="15">
         <v>1</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="15">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="學士班繁星推薦入學錄取率" xr:uid="{F1A92B45-892F-40E5-B059-C7BB2BDAF499}"/>
-    <hyperlink ref="B4" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="博士班招收國內重點大學畢業生比率" xr:uid="{5EDFA56D-91CE-4743-9D90-728F61CB5468}"/>
-    <hyperlink ref="B5" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="學士班獲獎助學金平均金額" xr:uid="{5B1CA15F-3B8E-4777-A805-143FA7D625B4}"/>
-    <hyperlink ref="B6" location="'1.7.1.4 碩士班平均修業年限'!A1" display="碩士班平均修業年限" xr:uid="{36242A28-FB2A-4BDC-866B-D69E80099F36}"/>
-    <hyperlink ref="B8" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="平均碩博士班修課學生人數" xr:uid="{80919ACF-4AE4-44B2-8F41-BB00EF5CCB4D}"/>
-    <hyperlink ref="B9" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="各系所教師兼任本校二級學術行政主管人次" xr:uid="{C788B96F-0364-4C6E-993D-34F517A39AE8}"/>
-    <hyperlink ref="B11" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="舉辦國際學術研討會數" xr:uid="{770B8469-8355-4587-A291-666EFA269B52}"/>
+    <hyperlink ref="B3" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="學士班繁星推薦入學錄取率" xr:uid="{364273A0-C4DE-4430-970B-F99433EE96C8}"/>
+    <hyperlink ref="B4" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="博士班招收國內重點大學畢業生比率" xr:uid="{169458A6-330A-4D72-9DCE-F5E9075AB11D}"/>
+    <hyperlink ref="B5" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="學士班獲獎助學金平均金額" xr:uid="{E858EDAD-7A8F-4F5C-A2F3-55248B91F596}"/>
+    <hyperlink ref="B6" location="'1.7.1.4 碩士班平均修業年限'!A1" display="碩士班平均修業年限" xr:uid="{F58B1200-7977-408B-B997-564263D8FB0F}"/>
+    <hyperlink ref="B8" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="平均碩博士班修課學生人數" xr:uid="{9CF5FC77-860D-4C8F-A27F-3414E723D2CA}"/>
+    <hyperlink ref="B9" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="各系所教師兼任本校二級學術行政主管人次" xr:uid="{263AA9E1-82C9-401B-B672-518E39F9931C}"/>
+    <hyperlink ref="B11" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="舉辦國際學術研討會數" xr:uid="{7852FD47-F478-4E7A-964A-692C737D2143}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D43A128F-D51B-4C4A-B144-7F599006AB25}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AB90A36-865E-4DF9-9012-DD5F2197C90F}">
   <sheetPr codeName="工作表1" filterMode="1"/>
   <dimension ref="A1:Q4"/>
   <sheetViews>
@@ -5785,16 +5766,16 @@
       <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="10">
         <v>1.89E-2</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="10">
         <v>1.89E-2</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="10" t="s">
+      <c r="E2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>34</v>
       </c>
       <c r="G2" s="9">
@@ -5808,16 +5789,16 @@
       <c r="B3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="10">
         <v>1.89E-2</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="10">
         <v>1.89E-2</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="10" t="s">
+      <c r="E3" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>34</v>
       </c>
       <c r="G3" s="9">
@@ -5831,16 +5812,16 @@
       <c r="B4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="10" t="s">
+      <c r="C4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>34</v>
       </c>
       <c r="G4" s="9" t="s">
@@ -5858,7 +5839,7 @@
       <sortCondition ref="G1:G4"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G3">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G4">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5869,7 +5850,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DE36607-D4AD-48D5-A988-BAA7AB6FCAD1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C83037B-282B-40EE-B29F-60339A793871}">
   <sheetPr codeName="工作表2" filterMode="1"/>
   <dimension ref="A1:Q4"/>
   <sheetViews>
@@ -5920,16 +5901,16 @@
       <c r="B2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="10" t="s">
+      <c r="C2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>34</v>
       </c>
       <c r="G2" s="9">
@@ -5943,16 +5924,16 @@
       <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="10" t="s">
+      <c r="C3" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>34</v>
       </c>
       <c r="G3" s="9" t="s">
@@ -5966,16 +5947,16 @@
       <c r="B4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="10" t="s">
+      <c r="C4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>34</v>
       </c>
       <c r="G4" s="9" t="s">
@@ -5993,7 +5974,7 @@
       <sortCondition ref="G1:G4"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G4">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6004,7 +5985,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFC964E2-2561-4F93-93F4-DDF1F8507727}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC5F87F6-7E46-47E9-B8C8-33BFDC52CEAE}">
   <sheetPr codeName="工作表3" filterMode="1"/>
   <dimension ref="A1:Q4"/>
   <sheetViews>
@@ -6016,9 +5997,9 @@
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="6.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3.25" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
@@ -6058,16 +6039,16 @@
       <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="12">
         <v>92225.279999999999</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="12">
         <v>101541.13</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="12">
         <v>73593.58</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="11" t="s">
         <v>34</v>
       </c>
       <c r="G2" s="9">
@@ -6081,16 +6062,16 @@
       <c r="B3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="12">
         <v>92225.279999999999</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="12">
         <v>101541.13</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="12">
         <v>73593.58</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="11" t="s">
         <v>34</v>
       </c>
       <c r="G3" s="9">
@@ -6104,16 +6085,16 @@
       <c r="B4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="10" t="s">
+      <c r="C4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>34</v>
       </c>
       <c r="G4" s="9" t="s">
@@ -6131,7 +6112,7 @@
       <sortCondition ref="G1:G4"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G3">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G4">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6142,7 +6123,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90052EE4-2D78-4AEE-9CCA-AE8F882334C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B3723F2-F1EB-4DB9-B5BB-847BE0A77ED9}">
   <sheetPr codeName="工作表4" filterMode="1"/>
   <dimension ref="A1:Q4"/>
   <sheetViews>
@@ -6193,16 +6174,16 @@
       <c r="B2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="10" t="s">
+      <c r="C2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>34</v>
       </c>
       <c r="G2" s="9">
@@ -6216,16 +6197,16 @@
       <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="10" t="s">
+      <c r="C3" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>34</v>
       </c>
       <c r="G3" s="9" t="s">
@@ -6239,16 +6220,16 @@
       <c r="B4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="10" t="s">
+      <c r="C4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>34</v>
       </c>
       <c r="G4" s="9" t="s">
@@ -6266,7 +6247,7 @@
       <sortCondition ref="G1:G4"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G4">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6277,7 +6258,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{332CD964-76CF-47E5-91DF-70FB9769B543}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A015A403-B6CD-4401-AB1C-07C56697A80D}">
   <sheetPr codeName="工作表5" filterMode="1"/>
   <dimension ref="A1:Q4"/>
   <sheetViews>
@@ -6289,8 +6270,8 @@
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="4" width="4.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="3.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="8.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.25" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
@@ -6329,16 +6310,16 @@
       <c r="B2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="13">
         <v>7.78</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="13">
         <v>7.78</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="10" t="s">
+      <c r="E2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>34</v>
       </c>
       <c r="G2" s="9">
@@ -6352,16 +6333,16 @@
       <c r="B3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="13">
         <v>5.78</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="13">
         <v>5.45</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="14">
         <v>8</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="11" t="s">
         <v>34</v>
       </c>
       <c r="G3" s="9">
@@ -6375,16 +6356,16 @@
       <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="10" t="s">
+      <c r="C4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>34</v>
       </c>
       <c r="G4" s="9" t="s">
@@ -6402,7 +6383,7 @@
       <sortCondition ref="G1:G4"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G3">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G4">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6413,7 +6394,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{466E1DDA-DF30-4C95-AFCC-D66C8CF6061E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0033C6B3-B26F-47A1-8CFF-3AD1853D8857}">
   <sheetPr codeName="工作表6" filterMode="1"/>
   <dimension ref="A1:Q4"/>
   <sheetViews>
@@ -6425,7 +6406,8 @@
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="6" width="3.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="6.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.25" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
@@ -6464,16 +6446,16 @@
       <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="13">
         <v>0</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="13">
         <v>0</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="10" t="s">
+      <c r="E2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>34</v>
       </c>
       <c r="G2" s="9">
@@ -6487,16 +6469,16 @@
       <c r="B3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="13">
         <v>0</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="13">
         <v>0</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="13">
         <v>0</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="11" t="s">
         <v>34</v>
       </c>
       <c r="G3" s="9">
@@ -6510,16 +6492,16 @@
       <c r="B4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="10" t="s">
+      <c r="C4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>34</v>
       </c>
       <c r="G4" s="9" t="s">
@@ -6537,7 +6519,7 @@
       <sortCondition ref="G1:G4"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G3">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G4">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6548,7 +6530,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{646BBAF5-9F12-4F71-83AD-5F182AF3D3BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7C5DF92-7758-4689-AD01-0FF86A86F517}">
   <sheetPr codeName="工作表7" filterMode="1"/>
   <dimension ref="A1:Q4"/>
   <sheetViews>
@@ -6599,16 +6581,16 @@
       <c r="B2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="10" t="s">
+      <c r="C2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>34</v>
       </c>
       <c r="G2" s="9">
@@ -6622,16 +6604,16 @@
       <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="10" t="s">
+      <c r="C3" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>34</v>
       </c>
       <c r="G3" s="9" t="s">
@@ -6645,16 +6627,16 @@
       <c r="B4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="10" t="s">
+      <c r="C4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>34</v>
       </c>
       <c r="G4" s="9" t="s">
@@ -6672,7 +6654,7 @@
       <sortCondition ref="G1:G4"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G4">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/test/1. 各院彙整資料/創新國際學院.xlsx
+++ b/test/1. 各院彙整資料/創新國際學院.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\學評組工讀生\應數碩三_陳慎逸\3. Index-Evaluation-Analysis-Report\test\1. 各院彙整資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C5C6BA-48E1-46ED-9DC5-83DA4C0F6949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D056C13-9143-489D-B30D-4C5D1E5EEC95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="14580" windowHeight="10230" firstSheet="5" activeTab="7" xr2:uid="{8CAD56E1-075C-49FF-AC0F-538E9E30A719}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="7" xr2:uid="{8CAD56E1-075C-49FF-AC0F-538E9E30A719}"/>
   </bookViews>
   <sheets>
     <sheet name="小結" sheetId="1" r:id="rId1"/>
-    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="100" r:id="rId2"/>
-    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="101" r:id="rId3"/>
-    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="102" r:id="rId4"/>
-    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="103" r:id="rId5"/>
-    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="104" r:id="rId6"/>
-    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="105" r:id="rId7"/>
-    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="106" r:id="rId8"/>
+    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="114" r:id="rId2"/>
+    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="115" r:id="rId3"/>
+    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="116" r:id="rId4"/>
+    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="117" r:id="rId5"/>
+    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="118" r:id="rId6"/>
+    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="119" r:id="rId7"/>
+    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="120" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1.1.1.1 學士班繁星推薦入學錄取率'!$A$1:$G$4</definedName>
@@ -537,7 +537,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0E23-4EB3-AF15-3AFD9C29A570}"/>
+              <c16:uniqueId val="{00000000-3BD7-4A30-B5C0-293BFBBD7F4A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -601,7 +601,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0E23-4EB3-AF15-3AFD9C29A570}"/>
+              <c16:uniqueId val="{00000001-3BD7-4A30-B5C0-293BFBBD7F4A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -665,7 +665,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0E23-4EB3-AF15-3AFD9C29A570}"/>
+              <c16:uniqueId val="{00000002-3BD7-4A30-B5C0-293BFBBD7F4A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -883,7 +883,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-0E23-4EB3-AF15-3AFD9C29A570}"/>
+              <c16:uniqueId val="{00000004-3BD7-4A30-B5C0-293BFBBD7F4A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1187,7 +1187,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0A15-4142-AF12-F1C1377579A0}"/>
+              <c16:uniqueId val="{00000000-0CD4-4B49-8B98-2D6AC087572D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1245,7 +1245,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0A15-4142-AF12-F1C1377579A0}"/>
+              <c16:uniqueId val="{00000001-0CD4-4B49-8B98-2D6AC087572D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1303,7 +1303,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0A15-4142-AF12-F1C1377579A0}"/>
+              <c16:uniqueId val="{00000002-0CD4-4B49-8B98-2D6AC087572D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1418,7 +1418,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-0A15-4142-AF12-F1C1377579A0}"/>
+                  <c16:uniqueId val="{00000003-0CD4-4B49-8B98-2D6AC087572D}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1518,7 +1518,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-0A15-4142-AF12-F1C1377579A0}"/>
+              <c16:uniqueId val="{00000004-0CD4-4B49-8B98-2D6AC087572D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1828,7 +1828,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E8F1-4DF8-8B4A-D6B09CC1CEFE}"/>
+              <c16:uniqueId val="{00000000-3AC5-49CB-BEEE-BDC689C4B79A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1892,7 +1892,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E8F1-4DF8-8B4A-D6B09CC1CEFE}"/>
+              <c16:uniqueId val="{00000001-3AC5-49CB-BEEE-BDC689C4B79A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1956,7 +1956,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-E8F1-4DF8-8B4A-D6B09CC1CEFE}"/>
+              <c16:uniqueId val="{00000002-3AC5-49CB-BEEE-BDC689C4B79A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2174,7 +2174,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-E8F1-4DF8-8B4A-D6B09CC1CEFE}"/>
+              <c16:uniqueId val="{00000004-3AC5-49CB-BEEE-BDC689C4B79A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2478,7 +2478,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BD8A-432C-9D96-A7DA9EC57A58}"/>
+              <c16:uniqueId val="{00000000-2DC5-4029-B7BF-7FD7AB27D415}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2536,7 +2536,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BD8A-432C-9D96-A7DA9EC57A58}"/>
+              <c16:uniqueId val="{00000001-2DC5-4029-B7BF-7FD7AB27D415}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2594,7 +2594,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-BD8A-432C-9D96-A7DA9EC57A58}"/>
+              <c16:uniqueId val="{00000002-2DC5-4029-B7BF-7FD7AB27D415}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2709,7 +2709,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-BD8A-432C-9D96-A7DA9EC57A58}"/>
+                  <c16:uniqueId val="{00000003-2DC5-4029-B7BF-7FD7AB27D415}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2809,7 +2809,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-BD8A-432C-9D96-A7DA9EC57A58}"/>
+              <c16:uniqueId val="{00000004-2DC5-4029-B7BF-7FD7AB27D415}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3119,7 +3119,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DA46-4015-BF57-203D6A462CB5}"/>
+              <c16:uniqueId val="{00000000-5284-4D61-97BC-E88AB0F320DB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3183,7 +3183,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-DA46-4015-BF57-203D6A462CB5}"/>
+              <c16:uniqueId val="{00000001-5284-4D61-97BC-E88AB0F320DB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3247,7 +3247,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-DA46-4015-BF57-203D6A462CB5}"/>
+              <c16:uniqueId val="{00000002-5284-4D61-97BC-E88AB0F320DB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3465,7 +3465,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-DA46-4015-BF57-203D6A462CB5}"/>
+              <c16:uniqueId val="{00000004-5284-4D61-97BC-E88AB0F320DB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3775,7 +3775,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-ABE6-4F7C-946E-421B6C0FBC15}"/>
+              <c16:uniqueId val="{00000000-A434-4FD4-9230-1BDDC7A83B3A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3839,7 +3839,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-ABE6-4F7C-946E-421B6C0FBC15}"/>
+              <c16:uniqueId val="{00000001-A434-4FD4-9230-1BDDC7A83B3A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3903,7 +3903,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-ABE6-4F7C-946E-421B6C0FBC15}"/>
+              <c16:uniqueId val="{00000002-A434-4FD4-9230-1BDDC7A83B3A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4121,7 +4121,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-ABE6-4F7C-946E-421B6C0FBC15}"/>
+              <c16:uniqueId val="{00000004-A434-4FD4-9230-1BDDC7A83B3A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4425,7 +4425,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-500A-46B8-8E83-95E5B7932E85}"/>
+              <c16:uniqueId val="{00000000-E67F-4BDB-8AC0-8C4169888E69}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4483,7 +4483,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-500A-46B8-8E83-95E5B7932E85}"/>
+              <c16:uniqueId val="{00000001-E67F-4BDB-8AC0-8C4169888E69}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4541,7 +4541,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-500A-46B8-8E83-95E5B7932E85}"/>
+              <c16:uniqueId val="{00000002-E67F-4BDB-8AC0-8C4169888E69}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4656,7 +4656,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-500A-46B8-8E83-95E5B7932E85}"/>
+                  <c16:uniqueId val="{00000003-E67F-4BDB-8AC0-8C4169888E69}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4756,7 +4756,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-500A-46B8-8E83-95E5B7932E85}"/>
+              <c16:uniqueId val="{00000004-E67F-4BDB-8AC0-8C4169888E69}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4985,7 +4985,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5D2DE96-79F4-4FE4-AF86-5B2A0134D8C6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C40BC042-5C24-48A0-881E-61915D85831A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5018,7 +5018,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E3DAE65-F7E1-4A79-AE33-97F4A287ED26}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2549DADD-5268-4695-8122-E842E0DBCBCF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5051,7 +5051,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C125F85-BD93-46B6-9ED8-0AAE65D788D8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31DDA154-77D8-4E60-8B78-0D68931D5A2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5084,7 +5084,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A637E07-9062-4A5B-B39F-E5E70ACDC3CD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6C61510-1876-4893-92BD-01A07DD0AFF7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5117,7 +5117,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E151721E-239F-4CB9-BB47-386ABF5D841D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B48DE427-C4B3-4C48-9522-0F38D76B57A6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5150,7 +5150,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4FCF4E4-DF4B-48AB-9727-14A446502912}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6A205FA-4DF4-4380-9590-0A74E874D090}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5183,7 +5183,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8E41868-019F-42A2-8A59-D52C5B32446F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3DFECF7-DBB5-4E1A-80E7-7DEE99E7885F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5701,22 +5701,22 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="學士班繁星推薦入學錄取率" xr:uid="{364273A0-C4DE-4430-970B-F99433EE96C8}"/>
-    <hyperlink ref="B4" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="博士班招收國內重點大學畢業生比率" xr:uid="{169458A6-330A-4D72-9DCE-F5E9075AB11D}"/>
-    <hyperlink ref="B5" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="學士班獲獎助學金平均金額" xr:uid="{E858EDAD-7A8F-4F5C-A2F3-55248B91F596}"/>
-    <hyperlink ref="B6" location="'1.7.1.4 碩士班平均修業年限'!A1" display="碩士班平均修業年限" xr:uid="{F58B1200-7977-408B-B997-564263D8FB0F}"/>
-    <hyperlink ref="B8" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="平均碩博士班修課學生人數" xr:uid="{9CF5FC77-860D-4C8F-A27F-3414E723D2CA}"/>
-    <hyperlink ref="B9" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="各系所教師兼任本校二級學術行政主管人次" xr:uid="{263AA9E1-82C9-401B-B672-518E39F9931C}"/>
-    <hyperlink ref="B11" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="舉辦國際學術研討會數" xr:uid="{7852FD47-F478-4E7A-964A-692C737D2143}"/>
+    <hyperlink ref="B3" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="學士班繁星推薦入學錄取率" xr:uid="{1BA25FF7-1DCC-4C1A-8A9A-473D8D5826CA}"/>
+    <hyperlink ref="B4" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="博士班招收國內重點大學畢業生比率" xr:uid="{CBD5FCA3-3B27-4584-A6D6-33288557C4F0}"/>
+    <hyperlink ref="B5" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="學士班獲獎助學金平均金額" xr:uid="{6C289282-0FFD-4BAD-9C5A-27686EDC5900}"/>
+    <hyperlink ref="B6" location="'1.7.1.4 碩士班平均修業年限'!A1" display="碩士班平均修業年限" xr:uid="{6443458C-663A-497D-957A-25DA205D6416}"/>
+    <hyperlink ref="B8" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="平均碩博士班修課學生人數" xr:uid="{F2BBA181-DC9C-4C47-B6C9-438EDAC1BC48}"/>
+    <hyperlink ref="B9" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="各系所教師兼任本校二級學術行政主管人次" xr:uid="{5655F007-8DA5-4812-8327-1A104857FBBE}"/>
+    <hyperlink ref="B11" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="舉辦國際學術研討會數" xr:uid="{BE76001E-9CF2-44F3-84D2-99A0AAD64233}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AB90A36-865E-4DF9-9012-DD5F2197C90F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE984EE7-59D1-4C08-8D65-7A10C530EA98}">
   <sheetPr codeName="工作表1" filterMode="1"/>
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
@@ -5733,7 +5733,7 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
@@ -5755,11 +5755,11 @@
       <c r="G1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -5782,7 +5782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
@@ -5805,7 +5805,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
@@ -5850,9 +5850,9 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C83037B-282B-40EE-B29F-60339A793871}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D551071-94DB-45BD-89A9-3308A0694E70}">
   <sheetPr codeName="工作表2" filterMode="1"/>
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
@@ -5868,7 +5868,7 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
@@ -5890,11 +5890,11 @@
       <c r="G1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -5917,7 +5917,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
@@ -5940,7 +5940,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
@@ -5985,9 +5985,9 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC5F87F6-7E46-47E9-B8C8-33BFDC52CEAE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D44CACD-E5BF-4983-B90D-924C38B31B6F}">
   <sheetPr codeName="工作表3" filterMode="1"/>
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
@@ -6006,7 +6006,7 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
@@ -6028,11 +6028,11 @@
       <c r="G1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -6055,7 +6055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
@@ -6078,7 +6078,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
@@ -6123,9 +6123,9 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B3723F2-F1EB-4DB9-B5BB-847BE0A77ED9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A825ADF3-8100-470D-AD6B-0FAB0C60A64D}">
   <sheetPr codeName="工作表4" filterMode="1"/>
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
@@ -6141,7 +6141,7 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
@@ -6163,11 +6163,11 @@
       <c r="G1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -6190,7 +6190,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
@@ -6213,7 +6213,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
@@ -6258,9 +6258,9 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A015A403-B6CD-4401-AB1C-07C56697A80D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA84E0BF-6488-4EC1-997B-4E66CA061EDF}">
   <sheetPr codeName="工作表5" filterMode="1"/>
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
@@ -6277,7 +6277,7 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
@@ -6299,11 +6299,11 @@
       <c r="G1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
@@ -6326,7 +6326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
@@ -6349,7 +6349,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
@@ -6394,9 +6394,9 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0033C6B3-B26F-47A1-8CFF-3AD1853D8857}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B1A2317-1A6F-40BC-8A55-AA656BF08F7E}">
   <sheetPr codeName="工作表6" filterMode="1"/>
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
@@ -6413,7 +6413,7 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
@@ -6435,11 +6435,11 @@
       <c r="G1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -6462,7 +6462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
@@ -6485,7 +6485,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
@@ -6530,9 +6530,9 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7C5DF92-7758-4689-AD01-0FF86A86F517}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62F3DA82-F993-4E4D-8401-2AEE7E6DC97B}">
   <sheetPr codeName="工作表7" filterMode="1"/>
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
@@ -6548,7 +6548,7 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
@@ -6570,11 +6570,11 @@
       <c r="G1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -6597,7 +6597,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
@@ -6620,7 +6620,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
